--- a/entrega/acompanhamento-mensal.xlsx
+++ b/entrega/acompanhamento-mensal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rnappi\Documents\GitHub\ftt-tcc\entrega\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Dropbox\Documentos\FSARENA\TCC\rnappi\entrega\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE787BC-39CA-406A-9F89-CAF12EFF5AB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E010AC-8BF3-4763-9BE1-D3FE132FD34A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="818" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="818" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2º Sem - Agosto" sheetId="5" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="55">
   <si>
     <t>RELATÓRIO DE ACOMPANHAMENTO MENSAL DO TCC</t>
   </si>
@@ -215,12 +215,59 @@
   <si>
     <t>Eduardo Savino Gomes</t>
   </si>
+  <si>
+    <t>Definião do Escopo do trabalho</t>
+  </si>
+  <si>
+    <t>x'</t>
+  </si>
+  <si>
+    <t>Levantamento Bibliográfico sobre Metodologia Ativas e outras metodologia de Ensino</t>
+  </si>
+  <si>
+    <t>Levantamento Bibliográfico sobre Inteligência Arificia e Machine Learning</t>
+  </si>
+  <si>
+    <t>Criação do ambiente compartilhado no GitHub</t>
+  </si>
+  <si>
+    <t>Leitura de 2 Artigos sobre Educação 4.0 indicado pelo Orientador</t>
+  </si>
+  <si>
+    <t>Formalização da Definição da Linha de Pesquisa</t>
+  </si>
+  <si>
+    <t>Formalização da Problematização do Trabalho</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">COMENTÁRIO DO ORIENTADOR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Todos os componentes do grupo compareceram as reuniões, particparam ativamente na definição de um melhor contorno do problema a ser resolvido</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +324,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -298,7 +353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -769,11 +824,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -857,6 +951,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -881,40 +987,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -923,7 +999,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -933,6 +1015,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -947,24 +1032,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -975,9 +1042,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1013,7 +1077,52 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1024,6 +1133,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,7 +1204,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1103,7 +1224,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1119,7 +1240,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1139,7 +1260,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1215,7 +1336,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1347,7 +1468,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1488,8 +1609,8 @@
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>212607</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>841257</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>96630</xdr:rowOff>
     </xdr:to>
@@ -1561,13 +1682,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1628,13 +1749,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1699,9 +1820,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1766,9 +1887,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1827,15 +1948,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1894,15 +2015,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1963,13 +2084,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2034,7 +2155,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2097,13 +2218,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2168,7 +2289,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2235,7 +2356,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2298,13 +2419,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2369,9 +2490,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2432,13 +2553,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2503,7 +2624,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2566,13 +2687,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2637,9 +2758,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2700,13 +2821,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2771,7 +2892,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2834,13 +2955,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2905,9 +3026,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3042,13 +3163,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3113,7 +3234,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3176,13 +3297,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3247,9 +3368,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3389,13 +3510,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3456,13 +3577,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3527,9 +3648,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3594,9 +3715,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3655,15 +3776,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3722,15 +3843,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3791,13 +3912,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3862,7 +3983,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3925,13 +4046,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3996,7 +4117,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4063,7 +4184,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4126,13 +4247,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4197,9 +4318,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4260,13 +4381,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4331,7 +4452,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4394,13 +4515,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4465,9 +4586,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4528,13 +4649,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4599,7 +4720,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4662,13 +4783,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4733,9 +4854,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4870,13 +4991,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4941,7 +5062,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5004,13 +5125,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5075,9 +5196,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5217,13 +5338,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5284,13 +5405,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5355,9 +5476,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5422,9 +5543,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5483,15 +5604,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5550,15 +5671,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5619,13 +5740,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5690,7 +5811,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5753,13 +5874,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5824,7 +5945,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5891,7 +6012,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5954,13 +6075,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6025,9 +6146,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6088,13 +6209,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6159,7 +6280,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6222,13 +6343,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6293,9 +6414,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6356,13 +6477,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6427,7 +6548,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6490,13 +6611,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6561,9 +6682,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6698,13 +6819,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6769,9 +6890,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6832,13 +6953,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6903,9 +7024,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7045,13 +7166,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7112,13 +7233,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7183,9 +7304,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7250,9 +7371,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7311,15 +7432,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7378,15 +7499,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7447,13 +7568,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7518,7 +7639,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -7581,13 +7702,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7652,9 +7773,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7719,7 +7840,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -7782,13 +7903,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7853,9 +7974,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7916,13 +8037,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7987,7 +8108,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8050,13 +8171,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8121,9 +8242,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8184,11 +8305,11 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -8255,7 +8376,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8318,13 +8439,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8389,9 +8510,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8526,13 +8647,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8597,7 +8718,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8660,13 +8781,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8731,9 +8852,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9056,39 +9177,44 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B5:J85"/>
+  <dimension ref="B1:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="160" zoomScaleNormal="70" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:D24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -9098,79 +9224,79 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="43" t="str">
+      <c r="D7" s="47" t="str">
         <f>Plan1!B5</f>
         <v>Agosto</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="20" t="s">
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="49" t="s">
@@ -9179,14 +9305,14 @@
       <c r="D13" s="49"/>
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="49" t="s">
@@ -9195,232 +9321,238 @@
       <c r="D14" s="49"/>
       <c r="E14" s="49"/>
       <c r="F14" s="49"/>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+    </row>
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="22" t="s">
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="56"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="57" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="37" t="s">
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="38" t="s">
+      <c r="F19" s="44"/>
+      <c r="G19" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="41"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="58"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="45"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="60"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="56"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="60"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="58"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="56"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="60"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="58"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="56"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="60"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="59"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="56"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="61"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="57"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="63"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="58"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="60"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="56"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="60"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="58"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="56"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="60"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="59"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="56"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="61"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="58"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="57"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="60"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="58"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="56"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="60"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="58"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="56"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="60"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="58"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="56"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="52"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="60"/>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="56"/>
+    </row>
+    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="66"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="63"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -9430,19 +9562,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="57" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -9452,438 +9584,473 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="37" t="s">
+    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="39" t="s">
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="40"/>
-      <c r="G38" s="38" t="s">
+      <c r="F38" s="44"/>
+      <c r="G38" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="38"/>
-      <c r="I38" s="41"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="74"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="45"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="78"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="76"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="68"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="67"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="79"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="76"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="69"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="67"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="79"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="76"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="69"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="67"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="79"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="76"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="69"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="67"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="79"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="76"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="69"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="67"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="79"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="76"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="69"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="79"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="76"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="69"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="67"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="79"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="76"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="69"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="67"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="79"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="76"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="69"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="67"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="79"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="76"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="69"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="67"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="79"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="76"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="69"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="67"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="79"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="76"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="69"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="79"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="76"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="69"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="67"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="79"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="76"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="69"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="67"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="79"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="76"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="69"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="67"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="79"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="76"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="69"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="67"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="79"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="76"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="69"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="67"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="79"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="76"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="69"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="79"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="76"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="69"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="67"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="79"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="76"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="69"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="67"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="79"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="76"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="77"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="69"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="67"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="79"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="76"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="77"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="69"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="67"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="77"/>
-      <c r="H61" s="77"/>
-      <c r="I61" s="79"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="80"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="81"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="69"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="70"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="81"/>
-      <c r="I62" s="82"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="57" t="s">
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="72"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-    </row>
-    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="67" t="s">
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+    </row>
+    <row r="65" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B66" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="71" t="s">
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="71"/>
-      <c r="I66" s="72"/>
-    </row>
-    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="69"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="73" t="s">
+      <c r="H66" s="83"/>
+      <c r="I66" s="84"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B67" s="98"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="73"/>
-      <c r="I67" s="24" t="s">
+      <c r="H67" s="100"/>
+      <c r="I67" s="101" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="74"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="75"/>
-      <c r="I68" s="25"/>
-    </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="76"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="77"/>
-      <c r="I69" s="26"/>
-    </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="76"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="77"/>
-      <c r="H70" s="77"/>
-      <c r="I70" s="26"/>
-    </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="80"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="81"/>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="81"/>
-      <c r="I71" s="27"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="85" t="s">
+    <row r="68" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" s="49"/>
+      <c r="I68" s="37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69" s="49"/>
+      <c r="I69" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="J69" s="38"/>
+    </row>
+    <row r="70" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" s="49"/>
+      <c r="I70" s="37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71" s="49"/>
+      <c r="I71" s="37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B73" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="85"/>
-      <c r="D73" s="85"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="85"/>
-      <c r="H73" s="85"/>
-      <c r="I73" s="85"/>
-    </row>
-    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="86"/>
-      <c r="C75" s="87"/>
-      <c r="D75" s="87"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="87"/>
-      <c r="G75" s="87"/>
-      <c r="H75" s="87"/>
-      <c r="I75" s="88"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="58"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="60"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="58"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="60"/>
-    </row>
-    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="64"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="66"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G80" s="43" t="s">
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="75"/>
+    </row>
+    <row r="74" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B75" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="77"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="77"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="78"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B76" s="52"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="56"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B77" s="52"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="53"/>
+      <c r="I77" s="56"/>
+    </row>
+    <row r="78" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="61"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="63"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G80" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="43"/>
+      <c r="H80" s="47"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -9892,31 +10059,30 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="83" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="73" t="str">
         <f>IF(D10="","Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="83"/>
-      <c r="D83" s="83"/>
-      <c r="F83" s="84" t="s">
+      <c r="C83" s="73"/>
+      <c r="D83" s="73"/>
+      <c r="F83" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="84"/>
-      <c r="H83" s="84"/>
-      <c r="I83" s="84"/>
-    </row>
-    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G83" s="74"/>
+      <c r="H83" s="74"/>
+      <c r="I83" s="74"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="C8:I9 D10:I10 B20:D34 G20:I34 B68:I71 B75:I78 B39:D62 G39:I62" name="Intervalo1"/>
+    <protectedRange sqref="C8:I9 D10:I10 B20:D34 G20:I34 B75:I78 B39:D62 G39:I62 B68:I68 I70 B69:H70 B71:I71 I69:J69" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="51">
-    <mergeCell ref="H15:I15"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="F83:I83"/>
     <mergeCell ref="B68:F68"/>
@@ -9930,8 +10096,6 @@
     <mergeCell ref="B73:I73"/>
     <mergeCell ref="B75:I78"/>
     <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B66:F67"/>
-    <mergeCell ref="G66:I66"/>
     <mergeCell ref="G67:H67"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="B38:D38"/>
@@ -9946,6 +10110,8 @@
     <mergeCell ref="B64:I64"/>
     <mergeCell ref="B45:D50"/>
     <mergeCell ref="G45:I50"/>
+    <mergeCell ref="B66:F67"/>
+    <mergeCell ref="G66:I66"/>
     <mergeCell ref="B20:D24"/>
     <mergeCell ref="G20:I24"/>
     <mergeCell ref="B25:D29"/>
@@ -9967,6 +10133,7 @@
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
   </mergeCells>
   <conditionalFormatting sqref="B83:D83">
     <cfRule type="expression" priority="2">
@@ -9974,7 +10141,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I15">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9997,13 +10164,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10019,13 +10186,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10045,9 +10212,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10067,9 +10234,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10083,15 +10250,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10105,15 +10272,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10129,13 +10296,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10155,7 +10322,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10173,13 +10340,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10199,7 +10366,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10221,7 +10388,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10239,13 +10406,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10265,9 +10432,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10283,13 +10450,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10309,7 +10476,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10327,13 +10494,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10353,9 +10520,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10371,13 +10538,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10397,7 +10564,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10415,13 +10582,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10441,9 +10608,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10459,13 +10626,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10485,7 +10652,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10503,13 +10670,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10529,9 +10696,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10555,33 +10722,33 @@
       <selection activeCell="C8" sqref="C8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -10591,332 +10758,332 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="43" t="str">
+      <c r="D7" s="47" t="str">
         <f>Plan1!B6</f>
         <v>Setembro</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="48">
         <f>'2º Sem - Agosto'!C8:I8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="44" t="str">
+      <c r="C9" s="48" t="str">
         <f>'2º Sem - Agosto'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="44" t="str">
+      <c r="D10" s="48" t="str">
         <f>'2º Sem - Agosto'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="45" t="str">
+      <c r="C12" s="59" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="85"/>
+      <c r="I12" s="86"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="49" t="str">
+      <c r="C13" s="53" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="87"/>
+      <c r="I13" s="88"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="49" t="str">
+      <c r="C14" s="53" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="53" t="str">
+      <c r="C15" s="55" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="56"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="57" t="s">
+      <c r="H15" s="89"/>
+      <c r="I15" s="90"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="37" t="s">
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="38" t="s">
+      <c r="F19" s="44"/>
+      <c r="G19" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="41"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="58"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="45"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="60"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="56"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="60"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="58"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="56"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="60"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="58"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="56"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="60"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="59"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="56"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="61"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="57"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="63"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="58"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="60"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="56"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="60"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="58"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="56"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="60"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="59"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="56"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="61"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="58"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="57"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="60"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="58"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="56"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="60"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="58"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="56"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="60"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="58"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="56"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="52"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="60"/>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="56"/>
+    </row>
+    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="66"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="63"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -10926,19 +11093,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="57" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -10948,438 +11115,438 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="37" t="s">
+    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="39" t="s">
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="40"/>
-      <c r="G38" s="38" t="s">
+      <c r="F38" s="44"/>
+      <c r="G38" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="38"/>
-      <c r="I38" s="41"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="74"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="45"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="65"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="78"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="76"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="68"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="67"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="79"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="76"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="69"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="67"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="79"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="76"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="69"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="67"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="79"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="76"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="69"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="67"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="79"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="76"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="69"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="67"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="79"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="76"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="69"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="67"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="79"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="76"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="69"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="67"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="79"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="76"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="69"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="67"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="79"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="76"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="69"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="67"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="79"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="76"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="69"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="67"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="79"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="76"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="69"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="67"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="79"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="76"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="69"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="67"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="79"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="76"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="69"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="67"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="79"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="76"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="69"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="67"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="79"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="76"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="69"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="67"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="79"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="76"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="69"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="67"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="79"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="76"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="69"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="67"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="79"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="76"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="69"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="67"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="79"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="76"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="69"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="67"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="79"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="76"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="69"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="67"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="79"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="76"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="77"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="69"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="67"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="79"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="76"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="77"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="69"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="67"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="77"/>
-      <c r="H61" s="77"/>
-      <c r="I61" s="79"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="80"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="81"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="69"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="70"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="81"/>
-      <c r="I62" s="82"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="57" t="s">
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="72"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-    </row>
-    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="67" t="s">
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+    </row>
+    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="71" t="s">
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="71"/>
-      <c r="I66" s="72"/>
-    </row>
-    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="69"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="73" t="s">
+      <c r="H66" s="83"/>
+      <c r="I66" s="84"/>
+    </row>
+    <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="81"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="73"/>
+      <c r="H67" s="64"/>
       <c r="I67" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="74"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="75"/>
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="65"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
       <c r="I68" s="25"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="76"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="77"/>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="67"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
       <c r="I69" s="26"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="76"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="77"/>
-      <c r="H70" s="77"/>
+    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="67"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
       <c r="I70" s="26"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="80"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="81"/>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="81"/>
+    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="70"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="71"/>
       <c r="I71" s="27"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="85" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="85"/>
-      <c r="D73" s="85"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="85"/>
-      <c r="H73" s="85"/>
-      <c r="I73" s="85"/>
-    </row>
-    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="86"/>
-      <c r="C75" s="87"/>
-      <c r="D75" s="87"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="87"/>
-      <c r="G75" s="87"/>
-      <c r="H75" s="87"/>
-      <c r="I75" s="88"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="58"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="60"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="58"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="60"/>
-    </row>
-    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="64"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="66"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G80" s="43" t="s">
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="75"/>
+    </row>
+    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="76"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="77"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="78"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="52"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="56"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="52"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="53"/>
+      <c r="I77" s="56"/>
+    </row>
+    <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="61"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="63"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G80" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="43"/>
+      <c r="H80" s="47"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -11388,68 +11555,68 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="83" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="73" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="83"/>
-      <c r="D83" s="83"/>
-      <c r="F83" s="84" t="s">
+      <c r="C83" s="73"/>
+      <c r="D83" s="73"/>
+      <c r="F83" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="84"/>
-      <c r="H83" s="84"/>
-      <c r="I83" s="84"/>
-    </row>
-    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G83" s="74"/>
+      <c r="H83" s="74"/>
+      <c r="I83" s="74"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C97" s="4"/>
-      <c r="D97" s="84"/>
-      <c r="E97" s="84"/>
-      <c r="F97" s="84"/>
+      <c r="D97" s="74"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="74"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -11492,7 +11659,6 @@
     <mergeCell ref="B64:I64"/>
     <mergeCell ref="B45:D50"/>
     <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B20:D24"/>
     <mergeCell ref="G20:I24"/>
     <mergeCell ref="B25:D29"/>
     <mergeCell ref="G25:I29"/>
@@ -11513,9 +11679,10 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B20:D24"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:I11 B16:I16">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11530,7 +11697,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I15">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11553,13 +11720,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11575,13 +11742,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11601,9 +11768,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11623,9 +11790,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11639,15 +11806,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11661,15 +11828,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11685,13 +11852,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11711,7 +11878,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -11729,13 +11896,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11755,7 +11922,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -11777,7 +11944,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -11795,13 +11962,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11821,9 +11988,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11839,13 +12006,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11865,7 +12032,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -11883,13 +12050,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11909,9 +12076,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11927,13 +12094,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11953,7 +12120,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -11971,13 +12138,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11997,9 +12164,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12015,13 +12182,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12041,7 +12208,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12059,13 +12226,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12085,9 +12252,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12111,33 +12278,33 @@
       <selection activeCell="C8" sqref="C8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -12147,7 +12314,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -12159,317 +12326,317 @@
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="89">
+      <c r="C8" s="91">
         <f>'2º Sem - Setembro'!C8:I8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="89" t="str">
+      <c r="C9" s="91" t="str">
         <f>'2º Sem - Setembro'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="89" t="str">
+      <c r="D10" s="91" t="str">
         <f>'2º Sem - Setembro'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="45" t="str">
+      <c r="C12" s="59" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="85"/>
+      <c r="I12" s="86"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="49" t="str">
+      <c r="C13" s="53" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="87"/>
+      <c r="I13" s="88"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="49" t="str">
+      <c r="C14" s="53" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="53" t="str">
+      <c r="C15" s="55" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="56"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="57" t="s">
+      <c r="H15" s="89"/>
+      <c r="I15" s="90"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="37" t="s">
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="38" t="s">
+      <c r="F19" s="44"/>
+      <c r="G19" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="41"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="58"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="45"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="60"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="56"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="60"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="58"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="56"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="60"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="58"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="56"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="60"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="59"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="56"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="61"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="57"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="63"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="58"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="60"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="56"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="60"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="58"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="56"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="60"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="59"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="56"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="61"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="58"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="57"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="60"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="58"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="56"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="60"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="58"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="56"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="60"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="58"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="56"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="52"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="60"/>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="56"/>
+    </row>
+    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="66"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="63"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -12479,19 +12646,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="57" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -12501,438 +12668,438 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="37" t="s">
+    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="39" t="s">
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="40"/>
-      <c r="G38" s="38" t="s">
+      <c r="F38" s="44"/>
+      <c r="G38" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="38"/>
-      <c r="I38" s="41"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="74"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="45"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="65"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="78"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="76"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="68"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="67"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="79"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="76"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="69"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="67"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="79"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="76"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="69"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="67"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="79"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="76"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="69"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="67"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="79"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="76"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="69"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="67"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="79"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="76"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="69"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="67"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="79"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="76"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="69"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="67"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="79"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="76"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="69"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="67"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="79"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="76"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="69"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="67"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="79"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="76"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="69"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="67"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="79"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="76"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="69"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="67"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="79"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="76"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="69"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="67"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="79"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="76"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="69"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="67"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="79"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="76"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="69"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="67"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="79"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="76"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="69"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="67"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="79"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="76"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="69"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="67"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="79"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="76"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="69"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="67"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="79"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="76"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="69"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="67"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="79"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="76"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="69"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="67"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="79"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="76"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="69"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="67"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="79"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="76"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="77"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="69"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="67"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="79"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="76"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="77"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="69"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="67"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="77"/>
-      <c r="H61" s="77"/>
-      <c r="I61" s="79"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="80"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="81"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="69"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="70"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="81"/>
-      <c r="I62" s="82"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="57" t="s">
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="72"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-    </row>
-    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="67" t="s">
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+    </row>
+    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="71" t="s">
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="71"/>
-      <c r="I66" s="72"/>
-    </row>
-    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="69"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="73" t="s">
+      <c r="H66" s="83"/>
+      <c r="I66" s="84"/>
+    </row>
+    <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="81"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="73"/>
+      <c r="H67" s="64"/>
       <c r="I67" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="74"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="75"/>
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="65"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
       <c r="I68" s="25"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="76"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="77"/>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="67"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
       <c r="I69" s="26"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="76"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="77"/>
-      <c r="H70" s="77"/>
+    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="67"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
       <c r="I70" s="26"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="80"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="81"/>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="81"/>
+    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="70"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="71"/>
       <c r="I71" s="27"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="85" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="85"/>
-      <c r="D73" s="85"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="85"/>
-      <c r="H73" s="85"/>
-      <c r="I73" s="85"/>
-    </row>
-    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="86"/>
-      <c r="C75" s="87"/>
-      <c r="D75" s="87"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="87"/>
-      <c r="G75" s="87"/>
-      <c r="H75" s="87"/>
-      <c r="I75" s="88"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="58"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="60"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="58"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="60"/>
-    </row>
-    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="64"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="66"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G80" s="43" t="s">
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="75"/>
+    </row>
+    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="76"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="77"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="78"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="52"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="56"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="52"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="53"/>
+      <c r="I77" s="56"/>
+    </row>
+    <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="61"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="63"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G80" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="43"/>
+      <c r="H80" s="47"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -12941,21 +13108,21 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="83" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="73" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="83"/>
-      <c r="D83" s="83"/>
-      <c r="F83" s="84" t="s">
+      <c r="C83" s="73"/>
+      <c r="D83" s="73"/>
+      <c r="F83" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="84"/>
-      <c r="H83" s="84"/>
-      <c r="I83" s="84"/>
-    </row>
-    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G83" s="74"/>
+      <c r="H83" s="74"/>
+      <c r="I83" s="74"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>37</v>
       </c>
@@ -13017,7 +13184,7 @@
     <mergeCell ref="C14:F14"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I11 B7:C7 B16:I16">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13027,7 +13194,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I15">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13050,13 +13217,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13072,13 +13239,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13098,9 +13265,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13120,9 +13287,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13136,15 +13303,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13158,15 +13325,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13182,13 +13349,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13208,7 +13375,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13226,13 +13393,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13252,7 +13419,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13274,7 +13441,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13292,13 +13459,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13318,9 +13485,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13336,13 +13503,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13362,7 +13529,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13380,13 +13547,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13406,9 +13573,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13424,13 +13591,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13450,7 +13617,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13468,13 +13635,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13494,9 +13661,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13512,13 +13679,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13538,9 +13705,9 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13556,13 +13723,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13582,9 +13749,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13608,33 +13775,33 @@
       <selection activeCell="C8" sqref="C8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -13644,329 +13811,329 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="89">
+      <c r="C8" s="91">
         <f>'2º Sem - Setembro'!C8:I8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="89" t="str">
+      <c r="C9" s="91" t="str">
         <f>'2º Sem - Setembro'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="89" t="str">
+      <c r="D10" s="91" t="str">
         <f>'2º Sem - Setembro'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="45" t="str">
+      <c r="C12" s="59" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="85"/>
+      <c r="I12" s="86"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="49" t="str">
+      <c r="C13" s="53" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="87"/>
+      <c r="I13" s="88"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="49" t="str">
+      <c r="C14" s="53" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="53" t="str">
+      <c r="C15" s="55" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="56"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="57" t="s">
+      <c r="H15" s="89"/>
+      <c r="I15" s="90"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="37" t="s">
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="38" t="s">
+      <c r="F19" s="44"/>
+      <c r="G19" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="41"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="58"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="45"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="60"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="56"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="60"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="58"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="56"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="60"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="58"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="56"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="60"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="59"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="56"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="61"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="57"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="63"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="58"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="60"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="56"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="60"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="58"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="56"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="60"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="59"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="56"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="61"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="58"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="57"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="60"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="58"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="56"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="60"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="58"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="56"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="60"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="58"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="56"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="52"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="60"/>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="56"/>
+    </row>
+    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="66"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="63"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -13976,19 +14143,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="57" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
@@ -13998,438 +14165,438 @@
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
     </row>
-    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="37" t="s">
+    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="39" t="s">
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="40"/>
-      <c r="G38" s="38" t="s">
+      <c r="F38" s="44"/>
+      <c r="G38" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="38"/>
-      <c r="I38" s="41"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="74"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="45"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="65"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="78"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="76"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="68"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="67"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="79"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="76"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="69"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="67"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="79"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="76"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="69"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="67"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="79"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="76"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="69"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="67"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="79"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="76"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="69"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="67"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="79"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="62"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="46"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="69"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="92"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="63"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="58"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="50"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="60"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="52"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="93"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="91"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="60"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="58"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="50"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="56"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="52"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="93"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="91"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="60"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="58"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="50"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="56"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="52"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="93"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="91"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="60"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="58"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="50"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="56"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="52"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="93"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="91"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="60"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="59"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="54"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="56"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="54"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="94"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="61"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="62"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="46"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="57"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="92"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="63"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="58"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="50"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="60"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="52"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="93"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="91"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="60"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="58"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="50"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="56"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="52"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="93"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="91"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="60"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="58"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="50"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="56"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="52"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="93"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="91"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="60"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="58"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="50"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="56"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="52"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="93"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="91"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="60"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="59"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="54"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="56"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="54"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="94"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="92"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="61"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="76"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
+      <c r="G56" s="97"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="57"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="67"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="79"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="76"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="69"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="67"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="79"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="76"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="69"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="67"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="79"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="76"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="77"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="69"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="67"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="79"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="76"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="77"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="69"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="67"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="77"/>
-      <c r="H61" s="77"/>
-      <c r="I61" s="79"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="80"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="81"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="69"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="70"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="81"/>
-      <c r="I62" s="82"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="57" t="s">
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="72"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-    </row>
-    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="67" t="s">
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+    </row>
+    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="71" t="s">
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="71"/>
-      <c r="I66" s="72"/>
-    </row>
-    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="69"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="73" t="s">
+      <c r="H66" s="83"/>
+      <c r="I66" s="84"/>
+    </row>
+    <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="81"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="73"/>
+      <c r="H67" s="64"/>
       <c r="I67" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="74"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="75"/>
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="65"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
       <c r="I68" s="31"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="76"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="77"/>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="67"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
       <c r="I69" s="32"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="76"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="77"/>
-      <c r="H70" s="77"/>
+    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="67"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
       <c r="I70" s="32"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="80"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="81"/>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="81"/>
+    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="70"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="71"/>
       <c r="I71" s="33"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="85" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="85"/>
-      <c r="D73" s="85"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="85"/>
-      <c r="H73" s="85"/>
-      <c r="I73" s="85"/>
-    </row>
-    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="86"/>
-      <c r="C75" s="87"/>
-      <c r="D75" s="87"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="87"/>
-      <c r="G75" s="87"/>
-      <c r="H75" s="87"/>
-      <c r="I75" s="88"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="58"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="60"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="58"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="60"/>
-    </row>
-    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="64"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="66"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G80" s="43" t="s">
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="75"/>
+    </row>
+    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="76"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="77"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="78"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="52"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="56"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="52"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="53"/>
+      <c r="I77" s="56"/>
+    </row>
+    <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="61"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="63"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G80" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="43"/>
+      <c r="H80" s="47"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -14438,21 +14605,21 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="83" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="73" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="83"/>
-      <c r="D83" s="83"/>
-      <c r="F83" s="84" t="s">
+      <c r="C83" s="73"/>
+      <c r="D83" s="73"/>
+      <c r="F83" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="84"/>
-      <c r="H83" s="84"/>
-      <c r="I83" s="84"/>
-    </row>
-    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G83" s="74"/>
+      <c r="H83" s="74"/>
+      <c r="I83" s="74"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>37</v>
       </c>
@@ -14515,7 +14682,7 @@
     <mergeCell ref="F83:I83"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I11 B7 B16:I16">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14525,7 +14692,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14545,13 +14712,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14567,13 +14734,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14593,9 +14760,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14615,9 +14782,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14631,15 +14798,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14653,15 +14820,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14677,13 +14844,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14703,7 +14870,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -14721,13 +14888,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14747,9 +14914,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14769,7 +14936,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -14787,13 +14954,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14813,9 +14980,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14831,13 +14998,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14857,7 +15024,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -14875,13 +15042,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14901,9 +15068,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14919,11 +15086,11 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
@@ -14945,7 +15112,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -14963,13 +15130,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14989,9 +15156,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15007,13 +15174,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15033,7 +15200,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15051,13 +15218,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15077,9 +15244,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15100,34 +15267,34 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>35</v>
       </c>

--- a/entrega/acompanhamento-mensal.xlsx
+++ b/entrega/acompanhamento-mensal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Dropbox\Documentos\FSARENA\TCC\rnappi\entrega\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E010AC-8BF3-4763-9BE1-D3FE132FD34A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FE14C1-989D-4244-9E77-4493C5E8AF40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="818" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,12 +234,6 @@
     <t>Leitura de 2 Artigos sobre Educação 4.0 indicado pelo Orientador</t>
   </si>
   <si>
-    <t>Formalização da Definição da Linha de Pesquisa</t>
-  </si>
-  <si>
-    <t>Formalização da Problematização do Trabalho</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -261,6 +255,12 @@
       </rPr>
       <t>:Todos os componentes do grupo compareceram as reuniões, particparam ativamente na definição de um melhor contorno do problema a ser resolvido</t>
     </r>
+  </si>
+  <si>
+    <t>Formalização dos Itens 2, 3, 4, 5 e 6 relativos aos itens que devem ser entregues</t>
+  </si>
+  <si>
+    <t>Definição dos Objetivo Geral e Objetivos Específicos (Item 7  dos entregáveis)</t>
   </si>
 </sst>
 </file>
@@ -963,6 +963,57 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -976,63 +1027,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1059,29 +1053,56 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1089,10 +1110,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1105,12 +1123,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1133,18 +1145,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9179,8 +9179,8 @@
   </sheetPr>
   <dimension ref="B1:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9203,16 +9203,16 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -9229,98 +9229,98 @@
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="47" t="str">
+      <c r="D7" s="55" t="str">
         <f>Plan1!B5</f>
         <v>Agosto</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="39" t="s">
         <v>6</v>
       </c>
@@ -9331,17 +9331,17 @@
       <c r="B15" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C16" s="28"/>
@@ -9350,207 +9350,207 @@
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
     </row>
     <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="42" t="s">
+      <c r="F19" s="61"/>
+      <c r="G19" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="45"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="56"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="56"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="56"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="56"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="57"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="79"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="56"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="56"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="56"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="57"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="79"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="56"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="56"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="56"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="56"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51"/>
     </row>
     <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="54"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
@@ -9563,16 +9563,16 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
     </row>
     <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
@@ -9585,467 +9585,467 @@
       <c r="I37" s="16"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43" t="s">
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="44"/>
-      <c r="G38" s="42" t="s">
+      <c r="F38" s="61"/>
+      <c r="G38" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="42"/>
-      <c r="I38" s="45"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="62"/>
     </row>
     <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="68"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="66"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="67"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="69"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="67"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="67"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="69"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="67"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="67"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="69"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="67"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="67"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="69"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="67"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="67"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="69"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="67"/>
     </row>
     <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="67" t="s">
+      <c r="B45" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="69"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="67"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="67"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="69"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="67"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="67"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="69"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="67"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="67"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="69"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="67"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="67"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="69"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="67"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="67"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="69"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="67"/>
     </row>
     <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="69"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="67"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="67"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="69"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="67"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="67"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="69"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="67"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="67"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="69"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="67"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="67"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="69"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="67"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="67"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="69"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="67"/>
     </row>
     <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="67" t="s">
+      <c r="B57" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="69"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="67"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="67"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="69"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="67"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="67"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="69"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="67"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="67"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="69"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="67"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="67"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="69"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="67"/>
     </row>
     <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="70"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="72"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="70"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
     </row>
     <row r="65" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="79" t="s">
+      <c r="B66" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="83" t="s">
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="83"/>
-      <c r="I66" s="84"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="76"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="98"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="99"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="100" t="s">
+      <c r="B67" s="73"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="100"/>
-      <c r="I67" s="101" t="s">
+      <c r="H67" s="56"/>
+      <c r="I67" s="41" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="49" t="s">
+      <c r="B68" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49" t="s">
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H68" s="49"/>
+      <c r="H68" s="44"/>
       <c r="I68" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="49" t="s">
+      <c r="B69" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49" t="s">
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H69" s="49"/>
+      <c r="H69" s="44"/>
       <c r="I69" s="37" t="s">
         <v>34</v>
       </c>
       <c r="J69" s="38"/>
     </row>
     <row r="70" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49" t="s">
+      <c r="B70" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H70" s="49"/>
+      <c r="H70" s="44"/>
       <c r="I70" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49" t="s">
+      <c r="B71" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H71" s="49"/>
+      <c r="H71" s="44"/>
       <c r="I71" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="75" t="s">
+      <c r="B73" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="75"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="75"/>
-      <c r="G73" s="75"/>
-      <c r="H73" s="75"/>
-      <c r="I73" s="75"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
     </row>
     <row r="74" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" s="77"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="77"/>
-      <c r="G75" s="77"/>
-      <c r="H75" s="77"/>
-      <c r="I75" s="78"/>
+      <c r="B75" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="48"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="52"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="56"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="51"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="52"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="56"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="51"/>
     </row>
     <row r="78" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="61"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="63"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="54"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G80" s="47" t="s">
+      <c r="G80" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="47"/>
+      <c r="H80" s="55"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
@@ -10060,18 +10060,18 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="73" t="str">
+      <c r="B83" s="42" t="str">
         <f>IF(D10="","Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="73"/>
-      <c r="D83" s="73"/>
-      <c r="F83" s="74" t="s">
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="F83" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="74"/>
-      <c r="H83" s="74"/>
-      <c r="I83" s="74"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
@@ -10083,19 +10083,28 @@
     <protectedRange sqref="C8:I9 D10:I10 B20:D34 G20:I34 B75:I78 B39:D62 G39:I62 B68:I68 I70 B69:H70 B71:I71 I69:J69" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="51">
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
     <mergeCell ref="G67:H67"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="B38:D38"/>
@@ -10112,28 +10121,19 @@
     <mergeCell ref="G45:I50"/>
     <mergeCell ref="B66:F67"/>
     <mergeCell ref="G66:I66"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
   </mergeCells>
   <conditionalFormatting sqref="B83:D83">
     <cfRule type="expression" priority="2">
@@ -10737,16 +10737,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -10763,106 +10763,106 @@
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="47" t="str">
+      <c r="D7" s="55" t="str">
         <f>Plan1!B6</f>
         <v>Setembro</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="84">
         <f>'2º Sem - Agosto'!C8:I8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="48" t="str">
+      <c r="C9" s="84" t="str">
         <f>'2º Sem - Agosto'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="48" t="str">
+      <c r="D10" s="84" t="str">
         <f>'2º Sem - Agosto'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="59" t="str">
+      <c r="C12" s="81" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="85"/>
-      <c r="I12" s="86"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="92"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="53" t="str">
+      <c r="C13" s="50" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="87"/>
-      <c r="I13" s="88"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="94"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="53" t="str">
+      <c r="C14" s="50" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
@@ -10873,215 +10873,215 @@
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="55" t="str">
+      <c r="C15" s="78" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="89"/>
-      <c r="I15" s="90"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="87"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
     </row>
     <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="42" t="s">
+      <c r="F19" s="61"/>
+      <c r="G19" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="45"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="56"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="56"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="56"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="56"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="57"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="79"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="56"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="56"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="56"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="57"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="79"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="56"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="56"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="56"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="56"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51"/>
     </row>
     <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="54"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
@@ -11094,16 +11094,16 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
     </row>
     <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
@@ -11116,432 +11116,432 @@
       <c r="I37" s="16"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43" t="s">
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="44"/>
-      <c r="G38" s="42" t="s">
+      <c r="F38" s="61"/>
+      <c r="G38" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="42"/>
-      <c r="I38" s="45"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="62"/>
     </row>
     <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="65"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="68"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="66"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="67"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="69"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="67"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="67"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="69"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="67"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="67"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="69"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="67"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="67"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="69"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="67"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="67"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="69"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="67"/>
     </row>
     <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="67"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="69"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="67"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="67"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="69"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="67"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="67"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="69"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="67"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="67"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="69"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="67"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="67"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="69"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="67"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="67"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="69"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="67"/>
     </row>
     <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="67"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="69"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="67"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="67"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="69"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="67"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="67"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="69"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="67"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="67"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="69"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="67"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="67"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="69"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="67"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="67"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="69"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="67"/>
     </row>
     <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="67"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="69"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="67"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="67"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="69"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="67"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="67"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="69"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="67"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="67"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="69"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="67"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="67"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="69"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="67"/>
     </row>
     <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="70"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="72"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="70"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
     </row>
     <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="79" t="s">
+      <c r="B66" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="83" t="s">
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="83"/>
-      <c r="I66" s="84"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="76"/>
     </row>
     <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="81"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="64" t="s">
+      <c r="B67" s="88"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="64"/>
+      <c r="H67" s="90"/>
       <c r="I67" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="65"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
       <c r="I68" s="25"/>
     </row>
     <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="67"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
       <c r="I69" s="26"/>
     </row>
     <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="67"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
       <c r="I70" s="26"/>
     </row>
     <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="70"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="71"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="69"/>
       <c r="I71" s="27"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="75" t="s">
+      <c r="B73" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="75"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="75"/>
-      <c r="G73" s="75"/>
-      <c r="H73" s="75"/>
-      <c r="I73" s="75"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
     </row>
     <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="76"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="77"/>
-      <c r="G75" s="77"/>
-      <c r="H75" s="77"/>
-      <c r="I75" s="78"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="48"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="52"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="56"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="51"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="52"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="56"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="51"/>
     </row>
     <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="61"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="63"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="54"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="47" t="s">
+      <c r="G80" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="47"/>
+      <c r="H80" s="55"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
@@ -11556,18 +11556,18 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="73" t="str">
+      <c r="B83" s="42" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="73"/>
-      <c r="D83" s="73"/>
-      <c r="F83" s="74" t="s">
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="F83" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="74"/>
-      <c r="H83" s="74"/>
-      <c r="I83" s="74"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
@@ -11597,9 +11597,9 @@
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C97" s="4"/>
-      <c r="D97" s="74"/>
-      <c r="E97" s="74"/>
-      <c r="F97" s="74"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
       <c r="G97" s="4"/>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.3">
@@ -11628,6 +11628,42 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="52">
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="B83:D83"/>
@@ -11644,42 +11680,6 @@
     <mergeCell ref="B75:I78"/>
     <mergeCell ref="G80:H80"/>
     <mergeCell ref="B66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B20:D24"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:I11 B16:I16">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -12293,16 +12293,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -12330,92 +12330,92 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="91">
+      <c r="C8" s="95">
         <f>'2º Sem - Setembro'!C8:I8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="91" t="str">
+      <c r="C9" s="95" t="str">
         <f>'2º Sem - Setembro'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="91" t="str">
+      <c r="D10" s="95" t="str">
         <f>'2º Sem - Setembro'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="59" t="str">
+      <c r="C12" s="81" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="85"/>
-      <c r="I12" s="86"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="92"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="53" t="str">
+      <c r="C13" s="50" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="87"/>
-      <c r="I13" s="88"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="94"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="53" t="str">
+      <c r="C14" s="50" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
@@ -12426,215 +12426,215 @@
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="55" t="str">
+      <c r="C15" s="78" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="89"/>
-      <c r="I15" s="90"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="87"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
     </row>
     <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="42" t="s">
+      <c r="F19" s="61"/>
+      <c r="G19" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="45"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="56"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="56"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="56"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="56"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="57"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="79"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="56"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="56"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="56"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="57"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="79"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="56"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="56"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="56"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="56"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51"/>
     </row>
     <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="54"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
@@ -12647,16 +12647,16 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
     </row>
     <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
@@ -12669,432 +12669,432 @@
       <c r="I37" s="16"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43" t="s">
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="44"/>
-      <c r="G38" s="42" t="s">
+      <c r="F38" s="61"/>
+      <c r="G38" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="42"/>
-      <c r="I38" s="45"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="62"/>
     </row>
     <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="65"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="68"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="66"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="67"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="69"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="67"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="67"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="69"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="67"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="67"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="69"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="67"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="67"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="69"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="67"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="67"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="69"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="67"/>
     </row>
     <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="67"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="69"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="67"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="67"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="69"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="67"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="67"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="69"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="67"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="67"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="69"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="67"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="67"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="69"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="67"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="67"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="69"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="67"/>
     </row>
     <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="67"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="69"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="67"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="67"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="69"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="67"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="67"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="69"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="67"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="67"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="69"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="67"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="67"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="69"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="67"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="67"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="69"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="67"/>
     </row>
     <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="67"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="69"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="67"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="67"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="69"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="67"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="67"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="69"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="67"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="67"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="69"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="67"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="67"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="69"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="67"/>
     </row>
     <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="70"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="72"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="70"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
     </row>
     <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="79" t="s">
+      <c r="B66" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="83" t="s">
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="83"/>
-      <c r="I66" s="84"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="76"/>
     </row>
     <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="81"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="64" t="s">
+      <c r="B67" s="88"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="64"/>
+      <c r="H67" s="90"/>
       <c r="I67" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="65"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
       <c r="I68" s="25"/>
     </row>
     <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="67"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
       <c r="I69" s="26"/>
     </row>
     <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="67"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
       <c r="I70" s="26"/>
     </row>
     <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="70"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="71"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="69"/>
       <c r="I71" s="27"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="75" t="s">
+      <c r="B73" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="75"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="75"/>
-      <c r="G73" s="75"/>
-      <c r="H73" s="75"/>
-      <c r="I73" s="75"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
     </row>
     <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="76"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="77"/>
-      <c r="G75" s="77"/>
-      <c r="H75" s="77"/>
-      <c r="I75" s="78"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="48"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="52"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="56"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="51"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="52"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="56"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="51"/>
     </row>
     <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="61"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="63"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="54"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="47" t="s">
+      <c r="G80" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="47"/>
+      <c r="H80" s="55"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
@@ -13109,18 +13109,18 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="73" t="str">
+      <c r="B83" s="42" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="73"/>
-      <c r="D83" s="73"/>
-      <c r="F83" s="74" t="s">
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="F83" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="74"/>
-      <c r="H83" s="74"/>
-      <c r="I83" s="74"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
@@ -13132,19 +13132,27 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="50">
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
     <mergeCell ref="B66:F67"/>
     <mergeCell ref="G66:I66"/>
     <mergeCell ref="G67:H67"/>
@@ -13161,27 +13169,19 @@
     <mergeCell ref="B64:I64"/>
     <mergeCell ref="B45:D50"/>
     <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I11 B7:C7 B16:I16">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
@@ -13790,16 +13790,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
@@ -13812,107 +13812,107 @@
       <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="91">
+      <c r="C8" s="95">
         <f>'2º Sem - Setembro'!C8:I8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="91" t="str">
+      <c r="C9" s="95" t="str">
         <f>'2º Sem - Setembro'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="91" t="str">
+      <c r="D10" s="95" t="str">
         <f>'2º Sem - Setembro'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="59" t="str">
+      <c r="C12" s="81" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="85"/>
-      <c r="I12" s="86"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="92"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="53" t="str">
+      <c r="C13" s="50" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="87"/>
-      <c r="I13" s="88"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="94"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="53" t="str">
+      <c r="C14" s="50" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
@@ -13923,215 +13923,215 @@
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="55" t="str">
+      <c r="C15" s="78" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="89"/>
-      <c r="I15" s="90"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="87"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
     </row>
     <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="42" t="s">
+      <c r="F19" s="61"/>
+      <c r="G19" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="45"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="56"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="56"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="56"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="56"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="57"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="79"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="56"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="56"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="56"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="57"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="79"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="56"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="56"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="56"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="56"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51"/>
     </row>
     <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="54"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
@@ -14144,16 +14144,16 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
     </row>
     <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="29"/>
@@ -14166,432 +14166,432 @@
       <c r="I37" s="29"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43" t="s">
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="44"/>
-      <c r="G38" s="42" t="s">
+      <c r="F38" s="61"/>
+      <c r="G38" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="42"/>
-      <c r="I38" s="45"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="62"/>
     </row>
     <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="65"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="68"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="66"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="67"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="69"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="67"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="67"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="69"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="67"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="67"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="69"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="67"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="67"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="69"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="67"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="67"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="69"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="67"/>
     </row>
     <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="58"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="92"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="96"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="60"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="82"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="52"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="93"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="97"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="96"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="56"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="51"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="52"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="93"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="97"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="96"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="56"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="51"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="52"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="93"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="97"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="96"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="56"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="51"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="52"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="93"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="97"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="96"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="56"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="51"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="54"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="94"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="98"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="57"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="79"/>
     </row>
     <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="58"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="92"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="96"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="60"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="82"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="52"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="93"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="97"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="96"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="56"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="51"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="52"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="93"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="97"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="96"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="56"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="51"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="52"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="93"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="97"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="96"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="56"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="51"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="52"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="93"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="97"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="96"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="56"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="51"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="54"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="94"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="98"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="97"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="57"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="78"/>
+      <c r="I56" s="79"/>
     </row>
     <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="67"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="69"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="67"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="67"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="69"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="67"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="67"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="69"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="67"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="67"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="69"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="67"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="67"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="69"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="67"/>
     </row>
     <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="70"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="72"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="70"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
     </row>
     <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="79" t="s">
+      <c r="B66" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="83" t="s">
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="83"/>
-      <c r="I66" s="84"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="76"/>
     </row>
     <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="81"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="64" t="s">
+      <c r="B67" s="88"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="64"/>
+      <c r="H67" s="90"/>
       <c r="I67" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="65"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
       <c r="I68" s="31"/>
     </row>
     <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="67"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
       <c r="I69" s="32"/>
     </row>
     <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="67"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
       <c r="I70" s="32"/>
     </row>
     <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="70"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="71"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="69"/>
       <c r="I71" s="33"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="75" t="s">
+      <c r="B73" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="75"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="75"/>
-      <c r="G73" s="75"/>
-      <c r="H73" s="75"/>
-      <c r="I73" s="75"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
     </row>
     <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="76"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="77"/>
-      <c r="G75" s="77"/>
-      <c r="H75" s="77"/>
-      <c r="I75" s="78"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="48"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="52"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="56"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="51"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="52"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="56"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="51"/>
     </row>
     <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="61"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="63"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="54"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="47" t="s">
+      <c r="G80" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="47"/>
+      <c r="H80" s="55"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
@@ -14606,18 +14606,18 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="73" t="str">
+      <c r="B83" s="42" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="73"/>
-      <c r="D83" s="73"/>
-      <c r="F83" s="74" t="s">
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="F83" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="74"/>
-      <c r="H83" s="74"/>
-      <c r="I83" s="74"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
@@ -14629,6 +14629,44 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="51">
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B66:F67"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="C8:I8"/>
@@ -14642,44 +14680,6 @@
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I11 B7 B16:I16">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
@@ -15305,6 +15305,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Procedimento_x0020_Relacionado xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
@@ -15316,15 +15325,6 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15585,6 +15585,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF4BCC7-3A0E-4F11-8315-9CA8DFA05F4F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -15599,14 +15607,6 @@
     <ds:schemaRef ds:uri="feadaf30-646e-4180-8499-c12b20b15a5f"/>
     <ds:schemaRef ds:uri="948e1b9c-bee8-44de-8cc6-706e5b780eae"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/entrega/acompanhamento-mensal.xlsx
+++ b/entrega/acompanhamento-mensal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Dropbox\Documentos\FSARENA\TCC\rnappi\entrega\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FE14C1-989D-4244-9E77-4493C5E8AF40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8C22A8-5373-4C3C-9620-B7DB65EC7874}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="818" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,13 +225,16 @@
     <t>Levantamento Bibliográfico sobre Metodologia Ativas e outras metodologia de Ensino</t>
   </si>
   <si>
-    <t>Levantamento Bibliográfico sobre Inteligência Arificia e Machine Learning</t>
-  </si>
-  <si>
     <t>Criação do ambiente compartilhado no GitHub</t>
   </si>
   <si>
     <t>Leitura de 2 Artigos sobre Educação 4.0 indicado pelo Orientador</t>
+  </si>
+  <si>
+    <t>Formalização dos Itens 2, 3, 4, 5 e 6 relativos aos itens que devem ser entregues</t>
+  </si>
+  <si>
+    <t>Definição dos Objetivo Geral e Objetivos Específicos (Item 7  dos entregáveis)</t>
   </si>
   <si>
     <r>
@@ -253,14 +256,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:Todos os componentes do grupo compareceram as reuniões, particparam ativamente na definição de um melhor contorno do problema a ser resolvido</t>
+      <t>:Todos os componentes do grupo com compareceram as reuniões, participaram ativamente na definição de um melhor contorno do problema a ser resolvido. Para setembro, detro do cronograma, o Grupo deve identificar abordagens na literatura existente sobre Educação 4.0</t>
     </r>
   </si>
   <si>
-    <t>Formalização dos Itens 2, 3, 4, 5 e 6 relativos aos itens que devem ser entregues</t>
-  </si>
-  <si>
-    <t>Definição dos Objetivo Geral e Objetivos Específicos (Item 7  dos entregáveis)</t>
+    <t>Levantamento Bibliográfico sobre Inteligência Arificial e Machine Learning</t>
   </si>
 </sst>
 </file>
@@ -966,54 +966,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1027,6 +979,63 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1071,31 +1080,37 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1109,21 +1124,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9179,8 +9179,8 @@
   </sheetPr>
   <dimension ref="B1:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:F71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9203,16 +9203,16 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -9229,98 +9229,98 @@
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="55" t="str">
+      <c r="D7" s="48" t="str">
         <f>Plan1!B5</f>
         <v>Agosto</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="39" t="s">
         <v>6</v>
       </c>
@@ -9331,17 +9331,17 @@
       <c r="B15" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
       <c r="G15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C16" s="28"/>
@@ -9350,207 +9350,207 @@
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
     </row>
     <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="59" t="s">
+      <c r="F19" s="45"/>
+      <c r="G19" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="62"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="B20" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="57"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="57"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="57"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="57"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="79"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="58"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="82"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="57"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="57"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="77"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="79"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="B30" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="57"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="57"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="57"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="51"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="57"/>
     </row>
     <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="54"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
@@ -9563,16 +9563,16 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
     </row>
     <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
@@ -9585,467 +9585,467 @@
       <c r="I37" s="16"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="60" t="s">
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="61"/>
-      <c r="G38" s="59" t="s">
+      <c r="F38" s="45"/>
+      <c r="G38" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="59"/>
-      <c r="I38" s="62"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="46"/>
     </row>
     <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="66"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="69"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="65"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="67"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="70"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="65"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="67"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="70"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="65"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="67"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="70"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="65"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="67"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="70"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="65"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="67"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="70"/>
     </row>
     <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="67"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="70"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="65"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="67"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="70"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="65"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="67"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="70"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="65"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="67"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="70"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="65"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="67"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="70"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="65"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="67"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="70"/>
     </row>
     <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="67"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="70"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="65"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="67"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="70"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="65"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="67"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="70"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="65"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="67"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="70"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="65"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="67"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="70"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="65"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="67"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="70"/>
     </row>
     <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="65" t="s">
+      <c r="B57" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="67"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="70"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="65"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="67"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="70"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="65"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="67"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="70"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="65"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="67"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="70"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="65"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="67"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="70"/>
     </row>
     <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="68"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="70"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="73"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
     </row>
     <row r="65" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="71" t="s">
+      <c r="B66" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="75" t="s">
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="75"/>
-      <c r="I66" s="76"/>
+      <c r="H66" s="78"/>
+      <c r="I66" s="79"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="73"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="56" t="s">
+      <c r="B67" s="76"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="56"/>
+      <c r="H67" s="65"/>
       <c r="I67" s="41" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44" t="s">
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="H68" s="44"/>
+      <c r="H68" s="50"/>
       <c r="I68" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44" t="s">
+      <c r="B69" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="H69" s="44"/>
+      <c r="H69" s="50"/>
       <c r="I69" s="37" t="s">
         <v>34</v>
       </c>
       <c r="J69" s="38"/>
     </row>
     <row r="70" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44" t="s">
+      <c r="B70" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="H70" s="44"/>
+      <c r="H70" s="50"/>
       <c r="I70" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44" t="s">
+      <c r="B71" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="50"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="H71" s="44"/>
+      <c r="H71" s="50"/>
       <c r="I71" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="45" t="s">
+      <c r="B73" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="82"/>
+      <c r="I73" s="82"/>
     </row>
     <row r="74" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="48"/>
+      <c r="B75" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="84"/>
+      <c r="G75" s="84"/>
+      <c r="H75" s="84"/>
+      <c r="I75" s="85"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="49"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="51"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="57"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="49"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="51"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="57"/>
     </row>
     <row r="78" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="52"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="54"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="64"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G80" s="55" t="s">
+      <c r="G80" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="55"/>
+      <c r="H80" s="48"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
@@ -10060,18 +10060,18 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="42" t="str">
+      <c r="B83" s="80" t="str">
         <f>IF(D10="","Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="F83" s="43" t="s">
+      <c r="C83" s="80"/>
+      <c r="D83" s="80"/>
+      <c r="F83" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
+      <c r="G83" s="81"/>
+      <c r="H83" s="81"/>
+      <c r="I83" s="81"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
@@ -10083,6 +10083,41 @@
     <protectedRange sqref="C8:I9 D10:I10 B20:D34 G20:I34 B75:I78 B39:D62 G39:I62 B68:I68 I70 B69:H70 B71:I71 I69:J69" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="51">
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
+    <mergeCell ref="B66:F67"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:I19"/>
@@ -10099,41 +10134,6 @@
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
   </mergeCells>
   <conditionalFormatting sqref="B83:D83">
     <cfRule type="expression" priority="2">
@@ -10737,16 +10737,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -10763,106 +10763,106 @@
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="55" t="str">
+      <c r="D7" s="48" t="str">
         <f>Plan1!B6</f>
         <v>Setembro</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="49">
         <f>'2º Sem - Agosto'!C8:I8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="84" t="str">
+      <c r="C9" s="49" t="str">
         <f>'2º Sem - Agosto'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="84" t="str">
+      <c r="D10" s="49" t="str">
         <f>'2º Sem - Agosto'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="81" t="str">
+      <c r="C12" s="60" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="91"/>
-      <c r="I12" s="92"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="87"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="50" t="str">
+      <c r="C13" s="54" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="93"/>
-      <c r="I13" s="94"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="89"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="50" t="str">
+      <c r="C14" s="54" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
@@ -10873,215 +10873,215 @@
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="78" t="str">
+      <c r="C15" s="56" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="87"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="92"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
     </row>
     <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="59" t="s">
+      <c r="F19" s="45"/>
+      <c r="G19" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="62"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="57"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="57"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="57"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="57"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="79"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="58"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="80"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="82"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="57"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="57"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="77"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="79"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="57"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="57"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="57"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="51"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="57"/>
     </row>
     <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="54"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
@@ -11094,16 +11094,16 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
     </row>
     <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
@@ -11116,326 +11116,326 @@
       <c r="I37" s="16"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="60" t="s">
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="61"/>
-      <c r="G38" s="59" t="s">
+      <c r="F38" s="45"/>
+      <c r="G38" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="59"/>
-      <c r="I38" s="62"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="46"/>
     </row>
     <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="63"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="66"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="69"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="65"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="67"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="70"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="65"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="67"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="70"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="65"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="67"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="70"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="65"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="67"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="70"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="65"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="67"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="70"/>
     </row>
     <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="65"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="67"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="70"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="65"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="67"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="70"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="65"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="67"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="70"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="65"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="67"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="70"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="65"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="67"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="70"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="65"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="67"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="70"/>
     </row>
     <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="65"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="67"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="70"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="65"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="67"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="70"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="65"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="67"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="70"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="65"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="67"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="70"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="65"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="67"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="70"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="65"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="67"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="70"/>
     </row>
     <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="65"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="67"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="70"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="65"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="67"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="70"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="65"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="67"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="70"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="65"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="67"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="70"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="65"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="67"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="70"/>
     </row>
     <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="68"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="70"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="73"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
     </row>
     <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="71" t="s">
+      <c r="B66" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="75" t="s">
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="75"/>
-      <c r="I66" s="76"/>
+      <c r="H66" s="78"/>
+      <c r="I66" s="79"/>
     </row>
     <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="88"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="94"/>
+      <c r="F67" s="94"/>
       <c r="G67" s="90" t="s">
         <v>24</v>
       </c>
@@ -11445,103 +11445,103 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="63"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
       <c r="I68" s="25"/>
     </row>
     <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="65"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
       <c r="I69" s="26"/>
     </row>
     <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="65"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
       <c r="I70" s="26"/>
     </row>
     <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="68"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="69"/>
-      <c r="G71" s="69"/>
-      <c r="H71" s="69"/>
+      <c r="B71" s="71"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
       <c r="I71" s="27"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="45" t="s">
+      <c r="B73" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="82"/>
+      <c r="I73" s="82"/>
     </row>
     <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="46"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="48"/>
+      <c r="B75" s="83"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="84"/>
+      <c r="G75" s="84"/>
+      <c r="H75" s="84"/>
+      <c r="I75" s="85"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="49"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="51"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="57"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="49"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="51"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="57"/>
     </row>
     <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="52"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="54"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="64"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="55" t="s">
+      <c r="G80" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="55"/>
+      <c r="H80" s="48"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
@@ -11556,18 +11556,18 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="42" t="str">
+      <c r="B83" s="80" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="F83" s="43" t="s">
+      <c r="C83" s="80"/>
+      <c r="D83" s="80"/>
+      <c r="F83" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
+      <c r="G83" s="81"/>
+      <c r="H83" s="81"/>
+      <c r="I83" s="81"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
@@ -11597,9 +11597,9 @@
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C97" s="4"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="43"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="81"/>
+      <c r="F97" s="81"/>
       <c r="G97" s="4"/>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.3">
@@ -11628,6 +11628,42 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="52">
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B66:F67"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
     <mergeCell ref="D97:F97"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:F19"/>
@@ -11644,42 +11680,6 @@
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B66:F67"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:I11 B16:I16">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -12293,16 +12293,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -12375,47 +12375,47 @@
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="81" t="str">
+      <c r="C12" s="60" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="91"/>
-      <c r="I12" s="92"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="87"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="50" t="str">
+      <c r="C13" s="54" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="93"/>
-      <c r="I13" s="94"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="89"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="50" t="str">
+      <c r="C14" s="54" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
@@ -12426,215 +12426,215 @@
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="78" t="str">
+      <c r="C15" s="56" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="87"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="92"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
     </row>
     <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="59" t="s">
+      <c r="F19" s="45"/>
+      <c r="G19" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="62"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="57"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="57"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="57"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="57"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="79"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="58"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="80"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="82"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="57"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="57"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="77"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="79"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="57"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="57"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="57"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="51"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="57"/>
     </row>
     <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="54"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
@@ -12647,16 +12647,16 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
     </row>
     <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
@@ -12669,326 +12669,326 @@
       <c r="I37" s="16"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="60" t="s">
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="61"/>
-      <c r="G38" s="59" t="s">
+      <c r="F38" s="45"/>
+      <c r="G38" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="59"/>
-      <c r="I38" s="62"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="46"/>
     </row>
     <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="63"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="66"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="69"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="65"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="67"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="70"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="65"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="67"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="70"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="65"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="67"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="70"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="65"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="67"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="70"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="65"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="67"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="70"/>
     </row>
     <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="65"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="67"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="70"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="65"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="67"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="70"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="65"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="67"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="70"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="65"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="67"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="70"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="65"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="67"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="70"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="65"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="67"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="70"/>
     </row>
     <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="65"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="67"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="70"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="65"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="67"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="70"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="65"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="67"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="70"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="65"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="67"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="70"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="65"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="67"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="70"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="65"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="67"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="70"/>
     </row>
     <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="65"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="67"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="70"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="65"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="67"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="70"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="65"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="67"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="70"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="65"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="67"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="70"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="65"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="67"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="70"/>
     </row>
     <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="68"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="70"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="73"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
     </row>
     <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="71" t="s">
+      <c r="B66" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="75" t="s">
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="75"/>
-      <c r="I66" s="76"/>
+      <c r="H66" s="78"/>
+      <c r="I66" s="79"/>
     </row>
     <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="88"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="94"/>
+      <c r="F67" s="94"/>
       <c r="G67" s="90" t="s">
         <v>24</v>
       </c>
@@ -12998,103 +12998,103 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="63"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
       <c r="I68" s="25"/>
     </row>
     <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="65"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
       <c r="I69" s="26"/>
     </row>
     <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="65"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
       <c r="I70" s="26"/>
     </row>
     <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="68"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="69"/>
-      <c r="G71" s="69"/>
-      <c r="H71" s="69"/>
+      <c r="B71" s="71"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
       <c r="I71" s="27"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="45" t="s">
+      <c r="B73" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="82"/>
+      <c r="I73" s="82"/>
     </row>
     <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="46"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="48"/>
+      <c r="B75" s="83"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="84"/>
+      <c r="G75" s="84"/>
+      <c r="H75" s="84"/>
+      <c r="I75" s="85"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="49"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="51"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="57"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="49"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="51"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="57"/>
     </row>
     <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="52"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="54"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="64"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="55" t="s">
+      <c r="G80" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="55"/>
+      <c r="H80" s="48"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
@@ -13109,18 +13109,18 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="42" t="str">
+      <c r="B83" s="80" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="F83" s="43" t="s">
+      <c r="C83" s="80"/>
+      <c r="D83" s="80"/>
+      <c r="F83" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
+      <c r="G83" s="81"/>
+      <c r="H83" s="81"/>
+      <c r="I83" s="81"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
@@ -13132,27 +13132,19 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="50">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
     <mergeCell ref="B66:F67"/>
     <mergeCell ref="G66:I66"/>
     <mergeCell ref="G67:H67"/>
@@ -13169,19 +13161,27 @@
     <mergeCell ref="B64:I64"/>
     <mergeCell ref="B45:D50"/>
     <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I11 B7:C7 B16:I16">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
@@ -13790,16 +13790,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
@@ -13812,16 +13812,16 @@
       <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -13872,47 +13872,47 @@
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="81" t="str">
+      <c r="C12" s="60" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="91"/>
-      <c r="I12" s="92"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="87"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="50" t="str">
+      <c r="C13" s="54" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="93"/>
-      <c r="I13" s="94"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="89"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="50" t="str">
+      <c r="C14" s="54" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
@@ -13923,215 +13923,215 @@
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="78" t="str">
+      <c r="C15" s="56" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="87"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="92"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
     </row>
     <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="59" t="s">
+      <c r="F19" s="45"/>
+      <c r="G19" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="62"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="57"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="57"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="57"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="57"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="79"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="58"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="80"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="82"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="57"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="57"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="77"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="79"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="57"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="57"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="57"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="51"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="57"/>
     </row>
     <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="54"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
@@ -14144,16 +14144,16 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
     </row>
     <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="29"/>
@@ -14166,326 +14166,326 @@
       <c r="I37" s="29"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="60" t="s">
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="61"/>
-      <c r="G38" s="59" t="s">
+      <c r="F38" s="45"/>
+      <c r="G38" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="59"/>
-      <c r="I38" s="62"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="46"/>
     </row>
     <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="63"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="66"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="69"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="65"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="67"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="70"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="65"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="67"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="70"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="65"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="67"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="70"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="65"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="67"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="70"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="65"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="67"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="70"/>
     </row>
     <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="80"/>
-      <c r="C45" s="81"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="60"/>
       <c r="D45" s="96"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
       <c r="G45" s="99"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="82"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="61"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="49"/>
-      <c r="C46" s="50"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="97"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="100"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="51"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="57"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="49"/>
-      <c r="C47" s="50"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="97"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="100"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="51"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="57"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="49"/>
-      <c r="C48" s="50"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="97"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="100"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="51"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="57"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="49"/>
-      <c r="C49" s="50"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="97"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G49" s="100"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="51"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="57"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="77"/>
-      <c r="C50" s="78"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="56"/>
       <c r="D50" s="98"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
       <c r="G50" s="101"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="79"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="58"/>
     </row>
     <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="80"/>
-      <c r="C51" s="81"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="60"/>
       <c r="D51" s="96"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
       <c r="G51" s="99"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="82"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="61"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="49"/>
-      <c r="C52" s="50"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="97"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G52" s="100"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="51"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="57"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="49"/>
-      <c r="C53" s="50"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="97"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="100"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="51"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="57"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="49"/>
-      <c r="C54" s="50"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="97"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="100"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="51"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="57"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="49"/>
-      <c r="C55" s="50"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="54"/>
       <c r="D55" s="97"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="100"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="51"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="57"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="77"/>
-      <c r="C56" s="78"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="56"/>
       <c r="D56" s="98"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
       <c r="G56" s="101"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="79"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="58"/>
     </row>
     <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="65"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="67"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="70"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="65"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="67"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="70"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="65"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="67"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="70"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="65"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="67"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="70"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="65"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="67"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="70"/>
     </row>
     <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="68"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="70"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="73"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
     </row>
     <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="71" t="s">
+      <c r="B66" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="75" t="s">
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="75"/>
-      <c r="I66" s="76"/>
+      <c r="H66" s="78"/>
+      <c r="I66" s="79"/>
     </row>
     <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="88"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="94"/>
+      <c r="F67" s="94"/>
       <c r="G67" s="90" t="s">
         <v>24</v>
       </c>
@@ -14495,103 +14495,103 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="63"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
       <c r="I68" s="31"/>
     </row>
     <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="65"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
       <c r="I69" s="32"/>
     </row>
     <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="65"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
       <c r="I70" s="32"/>
     </row>
     <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="68"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="69"/>
-      <c r="G71" s="69"/>
-      <c r="H71" s="69"/>
+      <c r="B71" s="71"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
       <c r="I71" s="33"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="45" t="s">
+      <c r="B73" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="82"/>
+      <c r="I73" s="82"/>
     </row>
     <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="46"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="48"/>
+      <c r="B75" s="83"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="84"/>
+      <c r="G75" s="84"/>
+      <c r="H75" s="84"/>
+      <c r="I75" s="85"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="49"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="51"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="57"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="49"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="51"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="57"/>
     </row>
     <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="52"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="54"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="64"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="55" t="s">
+      <c r="G80" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="55"/>
+      <c r="H80" s="48"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
@@ -14606,18 +14606,18 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="42" t="str">
+      <c r="B83" s="80" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="F83" s="43" t="s">
+      <c r="C83" s="80"/>
+      <c r="D83" s="80"/>
+      <c r="F83" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
+      <c r="G83" s="81"/>
+      <c r="H83" s="81"/>
+      <c r="I83" s="81"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
@@ -14629,31 +14629,19 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="51">
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B7:I7"/>
     <mergeCell ref="G38:I38"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:F19"/>
@@ -14667,19 +14655,31 @@
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B66:F67"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I11 B7 B16:I16">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
@@ -15305,15 +15305,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Procedimento_x0020_Relacionado xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
@@ -15325,6 +15316,15 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15585,14 +15585,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF4BCC7-3A0E-4F11-8315-9CA8DFA05F4F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -15607,6 +15599,14 @@
     <ds:schemaRef ds:uri="feadaf30-646e-4180-8499-c12b20b15a5f"/>
     <ds:schemaRef ds:uri="948e1b9c-bee8-44de-8cc6-706e5b780eae"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/entrega/acompanhamento-mensal.xlsx
+++ b/entrega/acompanhamento-mensal.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Dropbox\Documentos\FSARENA\TCC\rnappi\entrega\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\005614\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8C22A8-5373-4C3C-9620-B7DB65EC7874}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="818" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="818" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2º Sem - Agosto" sheetId="5" r:id="rId1"/>
@@ -60,7 +59,7 @@
     <definedName name="Texto9" localSheetId="2">'2º Sem - Outubro'!$B$31</definedName>
     <definedName name="Texto9" localSheetId="1">'2º Sem - Setembro'!$B$31</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -76,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="58">
   <si>
     <t>RELATÓRIO DE ACOMPANHAMENTO MENSAL DO TCC</t>
   </si>
@@ -262,11 +261,33 @@
   <si>
     <t>Levantamento Bibliográfico sobre Inteligência Arificial e Machine Learning</t>
   </si>
+  <si>
+    <t>A- Levantamento Bibliográfico sobre Metodologia Ativas e outras metodologia de Ensino. B- Levantamento Bibliográfico sobre Inteligência Arificial e Machine Learning</t>
+  </si>
+  <si>
+    <t>Estudar e Testar técnicas de Machine Learing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A equipe fez um bom trabalaho de pesquisa relativo ao Levatamento Bilbliográfico. Em função da Semana de N2 não entregou tudo conforme planejada, dessa forma algumas entregas ficaram para Outubro. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Embora os alunos tenham se empenhado nas pesquisas, os objetivos ainda não estão claros para equipe</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -867,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -966,6 +987,57 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -979,63 +1051,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1080,37 +1095,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1124,6 +1133,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1276,7 +1300,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1296,7 +1320,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1308,7 +1332,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1316,7 +1340,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1332,7 +1356,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1352,7 +1376,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1368,7 +1392,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1682,13 +1706,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1749,13 +1773,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1820,9 +1844,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1887,9 +1911,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1948,15 +1972,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2015,15 +2039,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2084,13 +2108,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2155,7 +2179,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2218,13 +2242,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2289,7 +2313,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2356,7 +2380,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2419,13 +2443,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2490,9 +2514,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2553,13 +2577,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2624,7 +2648,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2687,13 +2711,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2758,9 +2782,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2821,13 +2845,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2892,7 +2916,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2955,13 +2979,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3026,9 +3050,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3163,13 +3187,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3234,7 +3258,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3297,13 +3321,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3368,9 +3392,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3510,13 +3534,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3577,13 +3601,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3648,9 +3672,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3715,9 +3739,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3776,15 +3800,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3843,15 +3867,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3912,13 +3936,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3983,7 +4007,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4046,13 +4070,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4117,7 +4141,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4184,7 +4208,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4247,13 +4271,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4318,9 +4342,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4381,13 +4405,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4452,7 +4476,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4515,13 +4539,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4586,9 +4610,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4649,13 +4673,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4720,7 +4744,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4783,13 +4807,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4854,9 +4878,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4991,13 +5015,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5062,7 +5086,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5125,13 +5149,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5196,9 +5220,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5338,13 +5362,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5405,13 +5429,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5476,9 +5500,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5543,9 +5567,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5604,15 +5628,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5671,15 +5695,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5740,13 +5764,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5811,7 +5835,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5874,13 +5898,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5945,7 +5969,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6012,7 +6036,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6075,13 +6099,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6146,9 +6170,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6209,13 +6233,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6280,7 +6304,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6343,13 +6367,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6414,9 +6438,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6477,13 +6501,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6548,7 +6572,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6611,13 +6635,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6682,9 +6706,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6819,13 +6843,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6890,9 +6914,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6953,13 +6977,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7024,9 +7048,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7166,13 +7190,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7233,13 +7257,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7304,9 +7328,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7371,9 +7395,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7432,15 +7456,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7499,15 +7523,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7568,13 +7592,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7639,7 +7663,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -7702,13 +7726,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7773,9 +7797,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7840,7 +7864,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -7903,13 +7927,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7974,9 +7998,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8037,13 +8061,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8108,7 +8132,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8171,13 +8195,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8242,9 +8266,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8305,11 +8329,11 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -8376,7 +8400,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8439,13 +8463,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8510,9 +8534,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8647,13 +8671,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8718,7 +8742,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8781,13 +8805,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8852,9 +8876,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9173,48 +9197,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70:F70"/>
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="47" t="s">
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -9224,335 +9248,335 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="48" t="str">
+      <c r="D7" s="56" t="str">
         <f>Plan1!B5</f>
         <v>Agosto</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="39" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
     </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="52" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="42" t="s">
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="43" t="s">
+      <c r="F19" s="62"/>
+      <c r="G19" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="46"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="53" t="s">
+      <c r="H19" s="60"/>
+      <c r="I19" s="63"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="57"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="57"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="57"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="57"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="58"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="59" t="s">
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="80"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="61"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="83"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="57"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="57"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="57"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="58"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="53" t="s">
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="80"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="57"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="53"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="57"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="57"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="53"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="57"/>
-    </row>
-    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -9562,19 +9586,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="52" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -9584,473 +9608,473 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="42" t="s">
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44" t="s">
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="45"/>
-      <c r="G38" s="43" t="s">
+      <c r="F38" s="62"/>
+      <c r="G38" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="43"/>
-      <c r="I38" s="46"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="66" t="s">
+      <c r="H38" s="60"/>
+      <c r="I38" s="63"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="69"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="68"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="67"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="66"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="70"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="68"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="68"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="66"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="70"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="68"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="68"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="66"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="70"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="68"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="68"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="66"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="70"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="68"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="68"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="66"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="70"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="68" t="s">
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="68"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="70"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="68"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="68"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="66"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="70"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="68"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="68"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="66"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="70"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="68"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="68"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="66"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="70"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="68"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="68"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="66"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="70"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="68"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="68"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="66"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="70"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="68" t="s">
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="68"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="70"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="68"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="68"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="66"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="70"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="68"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="68"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="66"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="70"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="68"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="68"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="66"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="70"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="68"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="68"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="66"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="70"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="68"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="68"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="66"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="70"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="68" t="s">
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="68"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="70"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="68"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="68"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="66"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="70"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="68"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="68"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="66"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="70"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="68"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="68"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="66"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="70"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="68"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="68"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="66"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="70"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="71"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="68"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="69"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="73"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="52" t="s">
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="71"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-    </row>
-    <row r="65" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="74" t="s">
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+    </row>
+    <row r="65" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="75"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="78" t="s">
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="78"/>
-      <c r="I66" s="79"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="76"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="65" t="s">
+      <c r="H66" s="76"/>
+      <c r="I66" s="77"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="74"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="65"/>
+      <c r="H67" s="57"/>
       <c r="I67" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="50" t="s">
+    <row r="68" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50" t="s">
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H68" s="50"/>
+      <c r="H68" s="45"/>
       <c r="I68" s="37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="50" t="s">
+    <row r="69" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50" t="s">
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H69" s="50"/>
+      <c r="H69" s="45"/>
       <c r="I69" s="37" t="s">
         <v>34</v>
       </c>
       <c r="J69" s="38"/>
     </row>
-    <row r="70" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="50" t="s">
+    <row r="70" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50" t="s">
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H70" s="50"/>
+      <c r="H70" s="45"/>
       <c r="I70" s="37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="50" t="s">
+    <row r="71" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50" t="s">
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H71" s="50"/>
+      <c r="H71" s="45"/>
       <c r="I71" s="37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="82" t="s">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="82"/>
-      <c r="D73" s="82"/>
-      <c r="E73" s="82"/>
-      <c r="F73" s="82"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="82"/>
-      <c r="I73" s="82"/>
-    </row>
-    <row r="74" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="83" t="s">
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+    </row>
+    <row r="74" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C75" s="84"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="84"/>
-      <c r="H75" s="84"/>
-      <c r="I75" s="85"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="53"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="57"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="53"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="57"/>
-    </row>
-    <row r="78" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="62"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="63"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="64"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G80" s="48" t="s">
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="49"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="50"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="52"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="52"/>
+    </row>
+    <row r="78" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="53"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="55"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G80" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="48"/>
+      <c r="H80" s="56"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -10059,21 +10083,21 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="80" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="43" t="str">
         <f>IF(D10="","Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="80"/>
-      <c r="D83" s="80"/>
-      <c r="F83" s="81" t="s">
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="F83" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="81"/>
-      <c r="H83" s="81"/>
-      <c r="I83" s="81"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+    </row>
+    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>30</v>
       </c>
@@ -10083,19 +10107,28 @@
     <protectedRange sqref="C8:I9 D10:I10 B20:D34 G20:I34 B75:I78 B39:D62 G39:I62 B68:I68 I70 B69:H70 B71:I71 I69:J69" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="51">
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
     <mergeCell ref="G67:H67"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="B38:D38"/>
@@ -10112,28 +10145,19 @@
     <mergeCell ref="G45:I50"/>
     <mergeCell ref="B66:F67"/>
     <mergeCell ref="G66:I66"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
   </mergeCells>
   <conditionalFormatting sqref="B83:D83">
     <cfRule type="expression" priority="2">
@@ -10164,13 +10188,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10186,13 +10210,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>160020</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10212,9 +10236,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10234,9 +10258,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10250,15 +10274,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10272,15 +10296,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10296,13 +10320,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10322,7 +10346,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10340,13 +10364,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10366,7 +10390,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10388,7 +10412,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10406,13 +10430,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10432,9 +10456,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10450,13 +10474,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10476,7 +10500,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10494,13 +10518,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10520,9 +10544,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10538,13 +10562,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10564,7 +10588,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10582,13 +10606,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10608,9 +10632,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10626,13 +10650,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10652,7 +10676,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10670,13 +10694,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10696,9 +10720,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10712,43 +10736,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B5:J100"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScale="130" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:I8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:I78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="47" t="s">
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -10758,332 +10782,338 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="48" t="str">
+      <c r="D7" s="56" t="str">
         <f>Plan1!B6</f>
         <v>Setembro</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="85">
         <f>'2º Sem - Agosto'!C8:I8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="49" t="str">
+      <c r="C9" s="85" t="str">
         <f>'2º Sem - Agosto'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="49" t="str">
+      <c r="D10" s="85" t="str">
         <f>'2º Sem - Agosto'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="60" t="str">
+      <c r="C12" s="82" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="87"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="54" t="str">
+      <c r="C13" s="51" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="88"/>
-      <c r="I13" s="89"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="94"/>
+      <c r="I13" s="95"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="54" t="str">
+      <c r="C14" s="51" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="56" t="str">
+      <c r="C15" s="79" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="91"/>
-      <c r="I15" s="92"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="52" t="s">
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="42" t="s">
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="43" t="s">
+      <c r="F19" s="62"/>
+      <c r="G19" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="46"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="63"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="57"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="57"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="57"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="57"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="58"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="80"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="61"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="83"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="57"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="57"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="57"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="58"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="53"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="80"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="57"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="53"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="57"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="57"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="53"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="57"/>
-    </row>
-    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -11093,19 +11123,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="52" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -11115,438 +11145,466 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="42" t="s">
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44" t="s">
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="45"/>
-      <c r="G38" s="43" t="s">
+      <c r="F38" s="62"/>
+      <c r="G38" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="43"/>
-      <c r="I38" s="46"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="63"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="69"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="68"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="67"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="66"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="70"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="68"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="68"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="66"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="70"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="68"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="68"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="66"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="70"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="68"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="68"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="66"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="70"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="68"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="68"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="66"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="70"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="68"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="68"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="70"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="68"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="68"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="66"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="70"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="68"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="68"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="66"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="70"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="68"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="68"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="66"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="70"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="68"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="68"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="66"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="70"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="68"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="68"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="66"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="70"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="68"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="68"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="70"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="68"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="68"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="66"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="70"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="68"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="68"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="66"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="70"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="68"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="68"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="66"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="70"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="68"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="68"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="66"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="70"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="68"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="68"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="66"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="70"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="68"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="68"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="70"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="68"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="68"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="66"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="70"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="68"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="68"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="66"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="70"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="68"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="68"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="66"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="70"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="68"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="68"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="66"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="70"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="71"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="68"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="69"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="73"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="52" t="s">
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="71"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-    </row>
-    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="74" t="s">
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+    </row>
+    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="75"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="78" t="s">
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="78"/>
-      <c r="I66" s="79"/>
-    </row>
-    <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="93"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="90" t="s">
+      <c r="H66" s="76"/>
+      <c r="I66" s="77"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="89"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="90"/>
+      <c r="H67" s="91"/>
       <c r="I67" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="66"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="25"/>
-    </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="68"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="26"/>
-    </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="68"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
-      <c r="I70" s="26"/>
-    </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="71"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="27"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="82" t="s">
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" s="65"/>
+      <c r="I68" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69" s="65"/>
+      <c r="I69" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H70" s="45"/>
+      <c r="I70" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="69"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="42"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="82"/>
-      <c r="D73" s="82"/>
-      <c r="E73" s="82"/>
-      <c r="F73" s="82"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="82"/>
-      <c r="I73" s="82"/>
-    </row>
-    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="83"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="84"/>
-      <c r="H75" s="84"/>
-      <c r="I75" s="85"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="53"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="57"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="53"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="57"/>
-    </row>
-    <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="62"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="63"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="64"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="48" t="s">
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+    </row>
+    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="49"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="50"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="52"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="52"/>
+    </row>
+    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="53"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="55"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G80" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="48"/>
+      <c r="H80" s="56"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -11555,68 +11613,68 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="80" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="43" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="80"/>
-      <c r="D83" s="80"/>
-      <c r="F83" s="81" t="s">
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="F83" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="81"/>
-      <c r="H83" s="81"/>
-      <c r="I83" s="81"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+    </row>
+    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C97" s="4"/>
-      <c r="D97" s="81"/>
-      <c r="E97" s="81"/>
-      <c r="F97" s="81"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="44"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -11625,9 +11683,48 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
+    <protectedRange sqref="B20:D34 G20:I34 B75 G39:I62 G68:I69 B71:I71 G70:I70" name="Intervalo1"/>
+    <protectedRange sqref="B39:D62" name="Intervalo1_1"/>
+    <protectedRange sqref="B68:F69" name="Intervalo1_2"/>
+    <protectedRange sqref="B70:F70" name="Intervalo1_3"/>
   </protectedRanges>
   <mergeCells count="52">
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="B83:D83"/>
@@ -11644,42 +11741,6 @@
     <mergeCell ref="B75:I78"/>
     <mergeCell ref="G80:H80"/>
     <mergeCell ref="B66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B20:D24"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:I11 B16:I16">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -11720,13 +11781,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11742,13 +11803,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>160020</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11768,9 +11829,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11790,9 +11851,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11806,15 +11867,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11828,15 +11889,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11852,13 +11913,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11878,7 +11939,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -11896,13 +11957,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11922,7 +11983,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -11944,7 +12005,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -11962,13 +12023,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11988,9 +12049,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12006,13 +12067,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12032,7 +12093,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12050,13 +12111,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12076,9 +12137,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12094,13 +12155,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12120,7 +12181,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12138,13 +12199,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12164,9 +12225,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12182,13 +12243,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12208,7 +12269,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12226,13 +12287,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12252,9 +12313,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12268,7 +12329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -12278,33 +12339,33 @@
       <selection activeCell="C8" sqref="C8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="47" t="s">
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -12314,7 +12375,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -12326,317 +12387,317 @@
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="95">
+      <c r="C8" s="96">
         <f>'2º Sem - Setembro'!C8:I8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="95" t="str">
+      <c r="C9" s="96" t="str">
         <f>'2º Sem - Setembro'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="95" t="str">
+      <c r="D10" s="96" t="str">
         <f>'2º Sem - Setembro'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="60" t="str">
+      <c r="C12" s="82" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="87"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="54" t="str">
+      <c r="C13" s="51" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="88"/>
-      <c r="I13" s="89"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="94"/>
+      <c r="I13" s="95"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="54" t="str">
+      <c r="C14" s="51" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="56" t="str">
+      <c r="C15" s="79" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="91"/>
-      <c r="I15" s="92"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="52" t="s">
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="42" t="s">
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="43" t="s">
+      <c r="F19" s="62"/>
+      <c r="G19" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="46"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="63"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="57"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="57"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="57"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="57"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="58"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="80"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="61"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="83"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="57"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="57"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="57"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="58"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="53"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="80"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="57"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="53"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="57"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="57"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="53"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="57"/>
-    </row>
-    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -12646,19 +12707,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="52" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -12668,438 +12729,438 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="42" t="s">
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44" t="s">
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="45"/>
-      <c r="G38" s="43" t="s">
+      <c r="F38" s="62"/>
+      <c r="G38" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="43"/>
-      <c r="I38" s="46"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="63"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="64"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="69"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="68"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="67"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="66"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="70"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="68"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="68"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="66"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="70"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="68"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="68"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="66"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="70"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="68"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="68"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="66"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="70"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="68"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="68"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="66"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="70"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="68"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="68"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="66"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="70"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="68"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="68"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="66"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="70"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="68"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="68"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="66"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="70"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="68"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="68"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="66"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="70"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="68"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="68"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="66"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="70"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="68"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="68"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="66"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="70"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="68"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="68"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="66"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="70"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="68"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="68"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="66"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="70"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="68"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="68"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="66"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="70"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="68"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="68"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="66"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="70"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="68"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="68"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="66"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="70"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="68"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="68"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="66"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="70"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="68"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="68"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="66"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="70"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="68"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="68"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="66"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="70"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="68"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="68"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="66"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="70"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="68"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="68"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="66"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="70"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="68"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="68"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="66"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="70"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="71"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="68"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="69"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="73"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="52" t="s">
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="71"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-    </row>
-    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="74" t="s">
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+    </row>
+    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="75"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="78" t="s">
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="78"/>
-      <c r="I66" s="79"/>
-    </row>
-    <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="93"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="90" t="s">
+      <c r="H66" s="76"/>
+      <c r="I66" s="77"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="89"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="90"/>
+      <c r="H67" s="91"/>
       <c r="I67" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="66"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="64"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
       <c r="I68" s="25"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="68"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="66"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
       <c r="I69" s="26"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="68"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
+    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="66"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
       <c r="I70" s="26"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="71"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
+    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="69"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
       <c r="I71" s="27"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="82" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="82"/>
-      <c r="D73" s="82"/>
-      <c r="E73" s="82"/>
-      <c r="F73" s="82"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="82"/>
-      <c r="I73" s="82"/>
-    </row>
-    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="83"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="84"/>
-      <c r="H75" s="84"/>
-      <c r="I75" s="85"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="53"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="57"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="53"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="57"/>
-    </row>
-    <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="62"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="63"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="64"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="48" t="s">
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+    </row>
+    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="47"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="49"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="50"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="52"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="52"/>
+    </row>
+    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="53"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="55"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G80" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="48"/>
+      <c r="H80" s="56"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -13108,21 +13169,21 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="80" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="43" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="80"/>
-      <c r="D83" s="80"/>
-      <c r="F83" s="81" t="s">
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="F83" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="81"/>
-      <c r="H83" s="81"/>
-      <c r="I83" s="81"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+    </row>
+    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>37</v>
       </c>
@@ -13132,19 +13193,27 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="50">
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
     <mergeCell ref="B66:F67"/>
     <mergeCell ref="G66:I66"/>
     <mergeCell ref="G67:H67"/>
@@ -13161,27 +13230,19 @@
     <mergeCell ref="B64:I64"/>
     <mergeCell ref="B45:D50"/>
     <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I11 B7:C7 B16:I16">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
@@ -13217,13 +13278,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13239,13 +13300,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>160020</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13265,9 +13326,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13287,9 +13348,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13303,15 +13364,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13325,15 +13386,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13349,13 +13410,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13375,7 +13436,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13393,13 +13454,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13419,7 +13480,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13441,7 +13502,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13459,13 +13520,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13485,9 +13546,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13503,13 +13564,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13529,7 +13590,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13547,13 +13608,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13573,9 +13634,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13591,13 +13652,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13617,7 +13678,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13635,13 +13696,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13661,9 +13722,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13679,13 +13740,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13705,9 +13766,9 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13723,13 +13784,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13749,9 +13810,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13765,7 +13826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -13775,33 +13836,33 @@
       <selection activeCell="C8" sqref="C8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="47" t="s">
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -13811,329 +13872,329 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="95">
+      <c r="C8" s="96">
         <f>'2º Sem - Setembro'!C8:I8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="95" t="str">
+      <c r="C9" s="96" t="str">
         <f>'2º Sem - Setembro'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="95" t="str">
+      <c r="D10" s="96" t="str">
         <f>'2º Sem - Setembro'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="60" t="str">
+      <c r="C12" s="82" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="87"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="54" t="str">
+      <c r="C13" s="51" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="88"/>
-      <c r="I13" s="89"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="94"/>
+      <c r="I13" s="95"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="54" t="str">
+      <c r="C14" s="51" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="56" t="str">
+      <c r="C15" s="79" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="91"/>
-      <c r="I15" s="92"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="52" t="s">
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="42" t="s">
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="43" t="s">
+      <c r="F19" s="62"/>
+      <c r="G19" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="46"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="63"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="57"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="57"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="57"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="57"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="58"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="80"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="61"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="83"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="57"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="57"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="57"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="58"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="53"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="80"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="57"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="53"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="57"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="57"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="53"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="57"/>
-    </row>
-    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -14143,19 +14204,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="52" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
@@ -14165,438 +14226,438 @@
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
     </row>
-    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="42" t="s">
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44" t="s">
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="45"/>
-      <c r="G38" s="43" t="s">
+      <c r="F38" s="62"/>
+      <c r="G38" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="43"/>
-      <c r="I38" s="46"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="63"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="64"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="69"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="68"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="67"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="66"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="70"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="68"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="68"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="66"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="70"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="68"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="68"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="66"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="70"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="68"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="68"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="66"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="70"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="68"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="68"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="66"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="70"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="59"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="96"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="68"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="81"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="97"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="61"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="53"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="97"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="83"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="50"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="98"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="100"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="57"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="53"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="97"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="52"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="98"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="100"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="57"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="53"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="97"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="52"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="98"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="100"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="57"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="53"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="97"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="52"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="50"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="98"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="100"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="57"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="55"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="98"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="52"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="78"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="99"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="58"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="59"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="96"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="80"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="81"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="97"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="61"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="53"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="97"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="83"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="50"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="98"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="100"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="57"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="53"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="97"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="50"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="98"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="100"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="57"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="53"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="97"/>
+      <c r="G53" s="101"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="52"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="50"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="98"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="100"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="57"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="53"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="97"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="52"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="50"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="98"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="100"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="57"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="55"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="98"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="52"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="78"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="99"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="58"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="68"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
+      <c r="G56" s="102"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="80"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="66"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="70"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="68"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="68"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="66"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="70"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="68"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="68"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="66"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="70"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="68"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="68"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="66"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="70"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="68"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="68"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="66"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="70"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="71"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="68"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="69"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="73"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="52" t="s">
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="71"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-    </row>
-    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="74" t="s">
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+    </row>
+    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="75"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="78" t="s">
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="78"/>
-      <c r="I66" s="79"/>
-    </row>
-    <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="93"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="90" t="s">
+      <c r="H66" s="76"/>
+      <c r="I66" s="77"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="89"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="90"/>
+      <c r="H67" s="91"/>
       <c r="I67" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="66"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="64"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
       <c r="I68" s="31"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="68"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="66"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
       <c r="I69" s="32"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="68"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
+    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="66"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
       <c r="I70" s="32"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="71"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
+    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="69"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
       <c r="I71" s="33"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="82" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="82"/>
-      <c r="D73" s="82"/>
-      <c r="E73" s="82"/>
-      <c r="F73" s="82"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="82"/>
-      <c r="I73" s="82"/>
-    </row>
-    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="83"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="84"/>
-      <c r="H75" s="84"/>
-      <c r="I75" s="85"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="53"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="57"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="53"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="57"/>
-    </row>
-    <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="62"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="63"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="64"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="48" t="s">
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+    </row>
+    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="47"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="49"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="50"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="52"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="52"/>
+    </row>
+    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="53"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="55"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G80" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="48"/>
+      <c r="H80" s="56"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -14605,21 +14666,21 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="80" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="43" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="80"/>
-      <c r="D83" s="80"/>
-      <c r="F83" s="81" t="s">
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="F83" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="81"/>
-      <c r="H83" s="81"/>
-      <c r="I83" s="81"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+    </row>
+    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>37</v>
       </c>
@@ -14629,6 +14690,44 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="51">
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B66:F67"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="C8:I8"/>
@@ -14642,44 +14741,6 @@
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I11 B7 B16:I16">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
@@ -14712,13 +14773,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14734,13 +14795,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>160020</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14760,9 +14821,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14782,9 +14843,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14798,15 +14859,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14820,15 +14881,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14844,13 +14905,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14870,7 +14931,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -14888,13 +14949,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14914,9 +14975,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>137160</xdr:rowOff>
+                    <xdr:rowOff>133350</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14936,7 +14997,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -14954,13 +15015,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14980,9 +15041,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14998,13 +15059,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15024,7 +15085,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15042,13 +15103,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15068,9 +15129,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15086,11 +15147,11 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
@@ -15112,7 +15173,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15130,13 +15191,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15156,9 +15217,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15174,13 +15235,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15200,7 +15261,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15218,13 +15279,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15244,9 +15305,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15260,41 +15321,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -15305,29 +15366,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Procedimento_x0020_Relacionado xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
-    <Processo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">55</Processo>
-    <C_x00f3_digo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">FSA - FTT18</C_x00f3_digo>
-    <Revis_x00e3_o xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">4</Revis_x00e3_o>
-    <Diretoria_x0020_Respons_x00e1_vel xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">2</Diretoria_x0020_Respons_x00e1_vel>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100951F864CA035244EB7F6E6B9CAD39DD8" ma:contentTypeVersion="28" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="4d3f40bcd57f6f3788c6a2039c87841b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="ce03834f-a579-4ecb-b47e-e136bae11e47" xmlns:ns3="948e1b9c-bee8-44de-8cc6-706e5b780eae" xmlns:ns4="feadaf30-646e-4180-8499-c12b20b15a5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3c3814524ee6e7ba98c66e9da7e66bc" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15584,34 +15622,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF4BCC7-3A0E-4F11-8315-9CA8DFA05F4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="feadaf30-646e-4180-8499-c12b20b15a5f"/>
-    <ds:schemaRef ds:uri="948e1b9c-bee8-44de-8cc6-706e5b780eae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Procedimento_x0020_Relacionado xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
+    <Processo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">55</Processo>
+    <C_x00f3_digo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">FSA - FTT18</C_x00f3_digo>
+    <Revis_x00e3_o xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">4</Revis_x00e3_o>
+    <Diretoria_x0020_Respons_x00e1_vel xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">2</Diretoria_x0020_Respons_x00e1_vel>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DEC6A78-1548-46C1-A293-FB862F1C8C0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15630,4 +15664,31 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF4BCC7-3A0E-4F11-8315-9CA8DFA05F4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="feadaf30-646e-4180-8499-c12b20b15a5f"/>
+    <ds:schemaRef ds:uri="948e1b9c-bee8-44de-8cc6-706e5b780eae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/entrega/acompanhamento-mensal.xlsx
+++ b/entrega/acompanhamento-mensal.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\005614\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Dropbox\Documentos\FSARENA\TCC\rnappi\entrega\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71F3DAF-140F-4514-8C4C-AD7E51D276E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="818" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="818" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2º Sem - Agosto" sheetId="5" r:id="rId1"/>
@@ -59,7 +60,7 @@
     <definedName name="Texto9" localSheetId="2">'2º Sem - Outubro'!$B$31</definedName>
     <definedName name="Texto9" localSheetId="1">'2º Sem - Setembro'!$B$31</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -287,7 +288,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -990,54 +991,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1051,6 +1004,63 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1095,31 +1105,37 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1133,21 +1149,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1340,11 +1341,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1356,7 +1357,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1364,7 +1365,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1392,11 +1393,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1706,13 +1707,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1773,13 +1774,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1844,9 +1845,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1911,9 +1912,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1972,15 +1973,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2039,15 +2040,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2108,13 +2109,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2179,7 +2180,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2242,13 +2243,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2313,7 +2314,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2380,7 +2381,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2443,13 +2444,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2514,9 +2515,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2577,13 +2578,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2648,7 +2649,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2711,13 +2712,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2782,9 +2783,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2845,13 +2846,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2916,7 +2917,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2979,13 +2980,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3050,9 +3051,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3187,13 +3188,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3258,7 +3259,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3321,13 +3322,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3392,9 +3393,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3534,13 +3535,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3601,13 +3602,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3672,9 +3673,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3739,9 +3740,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3800,15 +3801,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3867,15 +3868,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3936,13 +3937,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4007,7 +4008,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4070,13 +4071,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4141,7 +4142,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4208,7 +4209,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4271,13 +4272,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4342,9 +4343,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4405,13 +4406,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4476,7 +4477,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4539,13 +4540,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4610,9 +4611,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4673,13 +4674,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4744,7 +4745,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4807,13 +4808,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4878,9 +4879,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5015,13 +5016,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5086,7 +5087,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5149,13 +5150,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5220,9 +5221,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5362,13 +5363,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5429,13 +5430,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5500,9 +5501,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5567,9 +5568,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5628,15 +5629,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5695,15 +5696,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5764,13 +5765,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5835,7 +5836,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5898,13 +5899,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5969,7 +5970,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6036,7 +6037,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6099,13 +6100,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6170,9 +6171,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6233,13 +6234,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6304,7 +6305,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6367,13 +6368,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6438,9 +6439,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6501,13 +6502,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6572,7 +6573,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6635,13 +6636,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6706,9 +6707,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6843,13 +6844,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6914,9 +6915,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6977,13 +6978,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7048,9 +7049,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7190,13 +7191,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7257,13 +7258,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7328,9 +7329,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7395,9 +7396,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7456,15 +7457,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7523,15 +7524,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7592,13 +7593,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7663,7 +7664,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -7726,13 +7727,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7797,9 +7798,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7864,7 +7865,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -7927,13 +7928,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7998,9 +7999,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8061,13 +8062,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8132,7 +8133,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8195,13 +8196,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8266,9 +8267,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8329,11 +8330,11 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -8400,7 +8401,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8463,13 +8464,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8534,9 +8535,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8671,13 +8672,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8742,7 +8743,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8805,13 +8806,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8876,9 +8877,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9197,7 +9198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -9207,38 +9208,38 @@
       <selection activeCell="B70" sqref="B70:F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="84" t="s">
+    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -9248,335 +9249,335 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="56" t="str">
+      <c r="D7" s="49" t="str">
         <f>Plan1!B5</f>
         <v>Agosto</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
       <c r="G12" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="39" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
     </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
       <c r="G15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="58" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="59" t="s">
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="60" t="s">
+      <c r="F19" s="46"/>
+      <c r="G19" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="63"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="s">
+      <c r="H19" s="44"/>
+      <c r="I19" s="47"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="58"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="58"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="58"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="58"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="80"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="81" t="s">
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="59"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="58"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="58"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="78"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="58"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="80"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="50" t="s">
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="59"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="58"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="58"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="58"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="52"/>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="58"/>
+    </row>
+    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -9586,19 +9587,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="58" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -9608,473 +9609,473 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="59" t="s">
+    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="61" t="s">
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="62"/>
-      <c r="G38" s="60" t="s">
+      <c r="F38" s="46"/>
+      <c r="G38" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="60"/>
-      <c r="I38" s="63"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="64" t="s">
+      <c r="H38" s="44"/>
+      <c r="I38" s="47"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="67"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="66"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="70"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="69"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="68"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="66"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="71"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="69"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="68"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="66"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="71"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="69"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="68"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="66"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="71"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="69"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="68"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="66"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="71"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="69"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="68"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="66" t="s">
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="71"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="68"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="66"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="71"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="69"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="68"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="66"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="71"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="69"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="68"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="66"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="71"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="69"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="68"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="66"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="71"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="69"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="68"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="66"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="71"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="69"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="68"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="66" t="s">
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="71"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="68"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="66"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="71"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="69"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="68"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="66"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="71"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="69"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="68"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="66"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="71"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="69"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="68"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="66"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="71"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="69"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="68"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="66"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="71"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="69"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="68"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="66" t="s">
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="71"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="68"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="66"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="71"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="69"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="68"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="66"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="71"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="69"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="68"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="66"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="71"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="69"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="68"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="66"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="71"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="69"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="68"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="69"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="71"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="72"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="71"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="58" t="s">
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="74"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
-    </row>
-    <row r="65" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="72" t="s">
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+    </row>
+    <row r="65" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B66" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="76" t="s">
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="76"/>
-      <c r="I66" s="77"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="74"/>
-      <c r="C67" s="75"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="57" t="s">
+      <c r="H66" s="79"/>
+      <c r="I66" s="80"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B67" s="77"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="57"/>
+      <c r="H67" s="66"/>
       <c r="I67" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="45" t="s">
+    <row r="68" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="45" t="s">
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="H68" s="45"/>
+      <c r="H68" s="51"/>
       <c r="I68" s="37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="45" t="s">
+    <row r="69" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45" t="s">
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="H69" s="45"/>
+      <c r="H69" s="51"/>
       <c r="I69" s="37" t="s">
         <v>34</v>
       </c>
       <c r="J69" s="38"/>
     </row>
-    <row r="70" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="45" t="s">
+    <row r="70" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45" t="s">
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="H70" s="45"/>
+      <c r="H70" s="51"/>
       <c r="I70" s="37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="45" t="s">
+    <row r="71" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="45" t="s">
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="H71" s="45"/>
+      <c r="H71" s="51"/>
       <c r="I71" s="37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="46" t="s">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B73" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-    </row>
-    <row r="74" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="47" t="s">
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
+    </row>
+    <row r="74" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B75" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="49"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="50"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="52"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="50"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="52"/>
-    </row>
-    <row r="78" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="53"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="55"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G80" s="56" t="s">
+      <c r="C75" s="85"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="86"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B76" s="54"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="58"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B77" s="54"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="58"/>
+    </row>
+    <row r="78" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="63"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="65"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G80" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="56"/>
+      <c r="H80" s="49"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -10083,21 +10084,21 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="43" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="81" t="str">
         <f>IF(D10="","Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="F83" s="44" t="s">
+      <c r="C83" s="81"/>
+      <c r="D83" s="81"/>
+      <c r="F83" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
-    </row>
-    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G83" s="82"/>
+      <c r="H83" s="82"/>
+      <c r="I83" s="82"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>30</v>
       </c>
@@ -10107,6 +10108,41 @@
     <protectedRange sqref="C8:I9 D10:I10 B20:D34 G20:I34 B75:I78 B39:D62 G39:I62 B68:I68 I70 B69:H70 B71:I71 I69:J69" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="51">
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
+    <mergeCell ref="B66:F67"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:I19"/>
@@ -10123,41 +10159,6 @@
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
   </mergeCells>
   <conditionalFormatting sqref="B83:D83">
     <cfRule type="expression" priority="2">
@@ -10188,13 +10189,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10210,13 +10211,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10236,9 +10237,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10258,9 +10259,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10274,15 +10275,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10296,15 +10297,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10320,13 +10321,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10346,7 +10347,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10364,13 +10365,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10390,7 +10391,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10412,7 +10413,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10430,13 +10431,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10456,9 +10457,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10474,13 +10475,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10500,7 +10501,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10518,13 +10519,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10544,9 +10545,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10562,13 +10563,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10588,7 +10589,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10606,13 +10607,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10632,9 +10633,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10650,13 +10651,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10676,7 +10677,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10694,13 +10695,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10720,9 +10721,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10736,43 +10737,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B5:J100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:I78"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A64" zoomScale="130" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="84" t="s">
+    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -10782,338 +10783,338 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="56" t="str">
+      <c r="D7" s="49" t="str">
         <f>Plan1!B6</f>
         <v>Setembro</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="50">
         <f>'2º Sem - Agosto'!C8:I8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="85" t="str">
+      <c r="C9" s="50" t="str">
         <f>'2º Sem - Agosto'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="85" t="str">
+      <c r="D10" s="50" t="str">
         <f>'2º Sem - Agosto'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="82" t="str">
+      <c r="C12" s="61" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="87"/>
+      <c r="I12" s="88"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="51" t="str">
+      <c r="C13" s="55" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="95"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="89"/>
+      <c r="I13" s="90"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="51" t="str">
+      <c r="C14" s="55" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="79" t="str">
+      <c r="C15" s="57" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="87"/>
-      <c r="I15" s="88"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="58" t="s">
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="59" t="s">
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="60" t="s">
+      <c r="F19" s="46"/>
+      <c r="G19" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="63"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="s">
+      <c r="H19" s="44"/>
+      <c r="I19" s="47"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="58"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="58"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="58"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="58"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="80"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="81" t="s">
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="59"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="58"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="58"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="78"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="58"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="80"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="50" t="s">
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="59"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="58"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="58"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="58"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="52"/>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="58"/>
+    </row>
+    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -11123,19 +11124,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="58" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -11145,335 +11146,335 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="59" t="s">
+    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="61" t="s">
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="62"/>
-      <c r="G38" s="60" t="s">
+      <c r="F38" s="46"/>
+      <c r="G38" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="60"/>
-      <c r="I38" s="63"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="64" t="s">
+      <c r="H38" s="44"/>
+      <c r="I38" s="47"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="67"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="66"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="70"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="69"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="68"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="66"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="71"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="69"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="68"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="66"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="71"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="69"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="68"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="66"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="71"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="69"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="68"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="66"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="71"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="69"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="68"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="66" t="s">
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="71"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="68"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="66"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="71"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="69"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="68"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="66"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="71"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="69"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="68"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="66"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="71"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="69"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="68"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="66"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="71"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="69"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="68"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="66"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="71"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="69"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="68"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="66" t="s">
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="71"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="68"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="66"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="71"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="69"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="68"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="66"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="71"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="69"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="68"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="66"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="71"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="69"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="68"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="66"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="71"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="69"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="68"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="66"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="71"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="69"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="68"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="66" t="s">
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="71"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="68"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="66"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="71"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="69"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="68"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="66"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="71"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="69"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="68"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="66"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="71"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="69"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="68"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="66"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="71"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="69"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="68"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="69"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="71"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="72"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="71"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="58" t="s">
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="74"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
-    </row>
-    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="72" t="s">
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+    </row>
+    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="76" t="s">
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="76"/>
-      <c r="I66" s="77"/>
-    </row>
-    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="89"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="80"/>
+    </row>
+    <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="94"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="95"/>
       <c r="G67" s="91" t="s">
         <v>24</v>
       </c>
@@ -11482,129 +11483,129 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="45" t="s">
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="65" t="s">
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="H68" s="65"/>
+      <c r="H68" s="68"/>
       <c r="I68" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="45" t="s">
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="65" t="s">
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="H69" s="65"/>
+      <c r="H69" s="68"/>
       <c r="I69" s="42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="69" t="s">
+    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="45" t="s">
+      <c r="C70" s="73"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="H70" s="45"/>
+      <c r="H70" s="51"/>
       <c r="I70" s="42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="69"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
+    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="72"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
       <c r="I71" s="42"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="46" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-    </row>
-    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="47" t="s">
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
+    </row>
+    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="49"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="50"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="52"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="50"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="52"/>
-    </row>
-    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="53"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="55"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G80" s="56" t="s">
+      <c r="C75" s="85"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="86"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="54"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="58"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="54"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="58"/>
+    </row>
+    <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="63"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="65"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G80" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="56"/>
+      <c r="H80" s="49"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -11613,68 +11614,68 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="43" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="81" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="F83" s="44" t="s">
+      <c r="C83" s="81"/>
+      <c r="D83" s="81"/>
+      <c r="F83" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
-    </row>
-    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G83" s="82"/>
+      <c r="H83" s="82"/>
+      <c r="I83" s="82"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C97" s="4"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="44"/>
-      <c r="F97" s="44"/>
+      <c r="D97" s="82"/>
+      <c r="E97" s="82"/>
+      <c r="F97" s="82"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -11689,6 +11690,42 @@
     <protectedRange sqref="B70:F70" name="Intervalo1_3"/>
   </protectedRanges>
   <mergeCells count="52">
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B66:F67"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
     <mergeCell ref="D97:F97"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:F19"/>
@@ -11705,42 +11742,6 @@
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B66:F67"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:I11 B16:I16">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -11781,13 +11782,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11803,13 +11804,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11829,9 +11830,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11851,9 +11852,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11867,15 +11868,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11889,15 +11890,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11913,13 +11914,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11939,7 +11940,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -11957,13 +11958,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11983,7 +11984,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12005,7 +12006,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12023,13 +12024,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12049,9 +12050,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12067,13 +12068,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12093,7 +12094,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12111,13 +12112,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12137,9 +12138,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12155,13 +12156,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12181,7 +12182,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12199,13 +12200,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12225,9 +12226,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12243,13 +12244,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12269,7 +12270,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12287,13 +12288,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12313,9 +12314,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12329,7 +12330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -12339,33 +12340,33 @@
       <selection activeCell="C8" sqref="C8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="84" t="s">
+    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -12375,7 +12376,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -12387,7 +12388,7 @@
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -12402,7 +12403,7 @@
       <c r="H8" s="96"/>
       <c r="I8" s="96"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -12417,7 +12418,7 @@
       <c r="H9" s="96"/>
       <c r="I9" s="96"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
@@ -12432,272 +12433,272 @@
       <c r="H10" s="96"/>
       <c r="I10" s="96"/>
     </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="82" t="str">
+      <c r="C12" s="61" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="87"/>
+      <c r="I12" s="88"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="51" t="str">
+      <c r="C13" s="55" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="95"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="89"/>
+      <c r="I13" s="90"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="51" t="str">
+      <c r="C14" s="55" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="79" t="str">
+      <c r="C15" s="57" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="87"/>
-      <c r="I15" s="88"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="58" t="s">
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="59" t="s">
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="60" t="s">
+      <c r="F19" s="46"/>
+      <c r="G19" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="63"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="47"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="58"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="58"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="58"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="58"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="80"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="59"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="58"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="58"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="78"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="58"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="80"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="59"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="58"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="58"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="58"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="52"/>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="58"/>
+    </row>
+    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -12707,19 +12708,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="58" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -12729,327 +12730,327 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="59" t="s">
+    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="61" t="s">
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="62"/>
-      <c r="G38" s="60" t="s">
+      <c r="F38" s="46"/>
+      <c r="G38" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="60"/>
-      <c r="I38" s="63"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="64"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="47"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="67"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="67"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="66"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="70"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="69"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="68"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="66"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="71"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="69"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="68"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="66"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="71"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="69"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="68"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="66"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="71"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="69"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="68"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="66"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="71"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="69"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="68"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="66"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="71"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="69"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="68"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="66"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="71"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="69"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="68"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="66"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="71"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="69"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="68"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="66"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="71"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="69"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="68"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="66"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="71"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="69"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="68"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="66"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="71"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="69"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="68"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="66"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="71"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="69"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="68"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="66"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="71"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="69"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="68"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="66"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="71"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="69"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="68"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="66"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="71"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="69"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="68"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="66"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="71"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="69"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="68"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="66"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="71"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="69"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="68"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="66"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="71"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="69"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="68"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="66"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="71"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="69"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="68"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="66"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="71"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="69"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="68"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="66"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="71"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="69"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="68"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="66"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="71"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="69"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="68"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="69"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="71"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="72"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="71"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="58" t="s">
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="74"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
-    </row>
-    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="72" t="s">
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+    </row>
+    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="76" t="s">
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="76"/>
-      <c r="I66" s="77"/>
-    </row>
-    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="89"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="80"/>
+    </row>
+    <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="94"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="95"/>
       <c r="G67" s="91" t="s">
         <v>24</v>
       </c>
@@ -13058,109 +13059,109 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="64"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="67"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
       <c r="I68" s="25"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="66"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="69"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
       <c r="I69" s="26"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="66"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
+    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="69"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
       <c r="I70" s="26"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="69"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
+    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="72"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
       <c r="I71" s="27"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="46" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-    </row>
-    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="47"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="49"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="50"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="52"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="50"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="52"/>
-    </row>
-    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="53"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="55"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G80" s="56" t="s">
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
+    </row>
+    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="84"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="86"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="54"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="58"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="54"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="58"/>
+    </row>
+    <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="63"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="65"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G80" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="56"/>
+      <c r="H80" s="49"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -13169,21 +13170,21 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="43" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="81" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="F83" s="44" t="s">
+      <c r="C83" s="81"/>
+      <c r="D83" s="81"/>
+      <c r="F83" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
-    </row>
-    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G83" s="82"/>
+      <c r="H83" s="82"/>
+      <c r="I83" s="82"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>37</v>
       </c>
@@ -13193,27 +13194,19 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="50">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
     <mergeCell ref="B66:F67"/>
     <mergeCell ref="G66:I66"/>
     <mergeCell ref="G67:H67"/>
@@ -13230,19 +13223,27 @@
     <mergeCell ref="B64:I64"/>
     <mergeCell ref="B45:D50"/>
     <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I11 B7:C7 B16:I16">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
@@ -13278,13 +13279,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13300,13 +13301,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13326,9 +13327,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13348,9 +13349,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13364,15 +13365,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13386,15 +13387,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13410,13 +13411,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13436,7 +13437,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13454,13 +13455,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13480,7 +13481,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13502,7 +13503,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13520,13 +13521,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13546,9 +13547,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13564,13 +13565,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13590,7 +13591,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13608,13 +13609,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13634,9 +13635,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13652,13 +13653,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13678,7 +13679,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13696,13 +13697,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13722,9 +13723,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13740,13 +13741,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13766,9 +13767,9 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13784,13 +13785,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13810,9 +13811,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13826,7 +13827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -13836,33 +13837,33 @@
       <selection activeCell="C8" sqref="C8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="84" t="s">
+    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -13872,19 +13873,19 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="56" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -13899,7 +13900,7 @@
       <c r="H8" s="96"/>
       <c r="I8" s="96"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -13914,7 +13915,7 @@
       <c r="H9" s="96"/>
       <c r="I9" s="96"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
@@ -13929,272 +13930,272 @@
       <c r="H10" s="96"/>
       <c r="I10" s="96"/>
     </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="82" t="str">
+      <c r="C12" s="61" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="87"/>
+      <c r="I12" s="88"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="51" t="str">
+      <c r="C13" s="55" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="95"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="89"/>
+      <c r="I13" s="90"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="51" t="str">
+      <c r="C14" s="55" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="79" t="str">
+      <c r="C15" s="57" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="87"/>
-      <c r="I15" s="88"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="58" t="s">
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="59" t="s">
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="60" t="s">
+      <c r="F19" s="46"/>
+      <c r="G19" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="63"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="47"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="58"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="58"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="58"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="58"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="80"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="59"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="58"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="58"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="78"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="58"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="80"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="59"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="58"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="58"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="58"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="52"/>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="58"/>
+    </row>
+    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -14204,19 +14205,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="58" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
@@ -14226,327 +14227,327 @@
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
     </row>
-    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="59" t="s">
+    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="61" t="s">
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="62"/>
-      <c r="G38" s="60" t="s">
+      <c r="F38" s="46"/>
+      <c r="G38" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="60"/>
-      <c r="I38" s="63"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="64"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="47"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="67"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="67"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="66"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="70"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="69"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="68"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="66"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="71"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="69"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="68"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="66"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="71"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="69"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="68"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="66"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="71"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="69"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="68"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="66"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="71"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="69"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="68"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="81"/>
-      <c r="C45" s="82"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="71"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="60"/>
+      <c r="C45" s="61"/>
       <c r="D45" s="97"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
       <c r="G45" s="100"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="83"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="50"/>
-      <c r="C46" s="51"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="62"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="54"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="98"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="101"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="52"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="58"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="54"/>
+      <c r="C47" s="55"/>
       <c r="D47" s="98"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="101"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="52"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="50"/>
-      <c r="C48" s="51"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="58"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
       <c r="D48" s="98"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="101"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="52"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="50"/>
-      <c r="C49" s="51"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="58"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="54"/>
+      <c r="C49" s="55"/>
       <c r="D49" s="98"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G49" s="101"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="52"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="78"/>
-      <c r="C50" s="79"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="58"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="56"/>
+      <c r="C50" s="57"/>
       <c r="D50" s="99"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
       <c r="G50" s="102"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="80"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="81"/>
-      <c r="C51" s="82"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="59"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="60"/>
+      <c r="C51" s="61"/>
       <c r="D51" s="97"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
       <c r="G51" s="100"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="83"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="50"/>
-      <c r="C52" s="51"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="62"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="54"/>
+      <c r="C52" s="55"/>
       <c r="D52" s="98"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G52" s="101"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="52"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="50"/>
-      <c r="C53" s="51"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="58"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="54"/>
+      <c r="C53" s="55"/>
       <c r="D53" s="98"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="101"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="52"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="50"/>
-      <c r="C54" s="51"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="58"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="54"/>
+      <c r="C54" s="55"/>
       <c r="D54" s="98"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="101"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="52"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="50"/>
-      <c r="C55" s="51"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="58"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="54"/>
+      <c r="C55" s="55"/>
       <c r="D55" s="98"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="101"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="52"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="78"/>
-      <c r="C56" s="79"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="58"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="56"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="99"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
       <c r="G56" s="102"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="80"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="66"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="59"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="69"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="68"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="66"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="71"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="69"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="68"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="66"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="71"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="69"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="68"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="66"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="71"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="69"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="68"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="66"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="71"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="69"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="68"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="69"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="71"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="72"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="71"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="58" t="s">
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="74"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
-    </row>
-    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="72" t="s">
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+    </row>
+    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="76" t="s">
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="76"/>
-      <c r="I66" s="77"/>
-    </row>
-    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="89"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="80"/>
+    </row>
+    <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="94"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="95"/>
       <c r="G67" s="91" t="s">
         <v>24</v>
       </c>
@@ -14555,109 +14556,109 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="64"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="67"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
       <c r="I68" s="31"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="66"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="69"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
       <c r="I69" s="32"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="66"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
+    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="69"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
       <c r="I70" s="32"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="69"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
+    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="72"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
       <c r="I71" s="33"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="46" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-    </row>
-    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="47"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="49"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="50"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="52"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="50"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="52"/>
-    </row>
-    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="53"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="55"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G80" s="56" t="s">
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
+    </row>
+    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="84"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="86"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="54"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="58"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="54"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="58"/>
+    </row>
+    <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="63"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="65"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G80" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="56"/>
+      <c r="H80" s="49"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -14666,21 +14667,21 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="43" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="81" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="F83" s="44" t="s">
+      <c r="C83" s="81"/>
+      <c r="D83" s="81"/>
+      <c r="F83" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
-    </row>
-    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G83" s="82"/>
+      <c r="H83" s="82"/>
+      <c r="I83" s="82"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>37</v>
       </c>
@@ -14690,31 +14691,19 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="51">
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B7:I7"/>
     <mergeCell ref="G38:I38"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:F19"/>
@@ -14728,19 +14717,31 @@
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B66:F67"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I11 B7 B16:I16">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
@@ -14773,13 +14774,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14795,13 +14796,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14821,9 +14822,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14843,9 +14844,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14859,15 +14860,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14881,15 +14882,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14905,13 +14906,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14931,7 +14932,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -14949,13 +14950,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14975,9 +14976,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14997,7 +14998,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15015,13 +15016,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15041,9 +15042,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15059,13 +15060,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15085,7 +15086,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15103,13 +15104,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15129,9 +15130,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15147,11 +15148,11 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
@@ -15173,7 +15174,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15191,13 +15192,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15217,9 +15218,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15235,13 +15236,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15261,7 +15262,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15279,13 +15280,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15305,9 +15306,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15321,41 +15322,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -15366,6 +15367,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Procedimento_x0020_Relacionado xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
+    <Processo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">55</Processo>
+    <C_x00f3_digo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">FSA - FTT18</C_x00f3_digo>
+    <Revis_x00e3_o xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">4</Revis_x00e3_o>
+    <Diretoria_x0020_Respons_x00e1_vel xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">2</Diretoria_x0020_Respons_x00e1_vel>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100951F864CA035244EB7F6E6B9CAD39DD8" ma:contentTypeVersion="28" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="4d3f40bcd57f6f3788c6a2039c87841b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="ce03834f-a579-4ecb-b47e-e136bae11e47" xmlns:ns3="948e1b9c-bee8-44de-8cc6-706e5b780eae" xmlns:ns4="feadaf30-646e-4180-8499-c12b20b15a5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3c3814524ee6e7ba98c66e9da7e66bc" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15622,30 +15646,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF4BCC7-3A0E-4F11-8315-9CA8DFA05F4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="feadaf30-646e-4180-8499-c12b20b15a5f"/>
+    <ds:schemaRef ds:uri="948e1b9c-bee8-44de-8cc6-706e5b780eae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Procedimento_x0020_Relacionado xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
-    <Processo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">55</Processo>
-    <C_x00f3_digo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">FSA - FTT18</C_x00f3_digo>
-    <Revis_x00e3_o xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">4</Revis_x00e3_o>
-    <Diretoria_x0020_Respons_x00e1_vel xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">2</Diretoria_x0020_Respons_x00e1_vel>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DEC6A78-1548-46C1-A293-FB862F1C8C0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15664,31 +15692,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF4BCC7-3A0E-4F11-8315-9CA8DFA05F4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="feadaf30-646e-4180-8499-c12b20b15a5f"/>
-    <ds:schemaRef ds:uri="948e1b9c-bee8-44de-8cc6-706e5b780eae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/entrega/acompanhamento-mensal.xlsx
+++ b/entrega/acompanhamento-mensal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Dropbox\Documentos\FSARENA\TCC\rnappi\entrega\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71F3DAF-140F-4514-8C4C-AD7E51D276E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE52DE16-8412-4B95-9B9B-E032D2F307B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="818" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2º Sem - Agosto" sheetId="5" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="62">
   <si>
     <t>RELATÓRIO DE ACOMPANHAMENTO MENSAL DO TCC</t>
   </si>
@@ -283,6 +283,18 @@
       </rPr>
       <t>Embora os alunos tenham se empenhado nas pesquisas, os objetivos ainda não estão claros para equipe</t>
     </r>
+  </si>
+  <si>
+    <t>Desenvolveram alguns pontos de forma individual mas não integraram os documentos</t>
+  </si>
+  <si>
+    <t>Foi basntante discutido, mas não formalizaram</t>
+  </si>
+  <si>
+    <t>Estudaram, testaram o KNN e concluiram que pode ser uma boa técnica para o protótipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalização e Entrega de todos os entregáveis </t>
   </si>
 </sst>
 </file>
@@ -889,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -991,6 +1003,54 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1004,63 +1064,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1105,37 +1108,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1149,6 +1146,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1170,6 +1182,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1421,11 +1442,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1445,7 +1466,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1453,7 +1474,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1473,7 +1494,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1485,7 +1506,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1513,7 +1534,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9228,16 +9249,16 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -9254,98 +9275,98 @@
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="49" t="str">
+      <c r="D7" s="56" t="str">
         <f>Plan1!B5</f>
         <v>Agosto</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="39" t="s">
         <v>6</v>
       </c>
@@ -9356,17 +9377,17 @@
       <c r="B15" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C16" s="28"/>
@@ -9375,207 +9396,207 @@
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
     </row>
     <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="44" t="s">
+      <c r="F19" s="62"/>
+      <c r="G19" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="47"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="63"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="58"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="58"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="58"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="58"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="59"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="80"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="83"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="58"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="58"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="58"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="59"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="80"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="58"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="58"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="58"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="58"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
     </row>
     <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="65"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
@@ -9588,16 +9609,16 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
     </row>
     <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
@@ -9610,467 +9631,467 @@
       <c r="I37" s="16"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45" t="s">
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="44" t="s">
+      <c r="F38" s="62"/>
+      <c r="G38" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="44"/>
-      <c r="I38" s="47"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="63"/>
     </row>
     <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="70"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="67"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="69"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="71"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="68"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="69"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="71"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="68"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="69"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="71"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="68"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="69"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="71"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="68"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="69"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="71"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="68"/>
     </row>
     <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="71"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="68"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="69"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="71"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="68"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="69"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="71"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="68"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="69"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="71"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="68"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="69"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="71"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="68"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="69"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="71"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="68"/>
     </row>
     <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="71"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="68"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="69"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="71"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="68"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="69"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="71"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="68"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="69"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="71"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="68"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="69"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="71"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="68"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="69"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="71"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="68"/>
     </row>
     <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="71"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="68"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="69"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="71"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="68"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="69"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="71"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="68"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="69"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="71"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="68"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="69"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="71"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="68"/>
     </row>
     <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="72"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="74"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="71"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
     </row>
     <row r="65" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="75" t="s">
+      <c r="B66" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="79" t="s">
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="79"/>
-      <c r="I66" s="80"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="77"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="77"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="66" t="s">
+      <c r="B67" s="74"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="66"/>
+      <c r="H67" s="57"/>
       <c r="I67" s="41" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51" t="s">
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H68" s="51"/>
+      <c r="H68" s="45"/>
       <c r="I68" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="51" t="s">
+      <c r="B69" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51" t="s">
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H69" s="51"/>
+      <c r="H69" s="45"/>
       <c r="I69" s="37" t="s">
         <v>34</v>
       </c>
       <c r="J69" s="38"/>
     </row>
     <row r="70" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51" t="s">
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H70" s="51"/>
+      <c r="H70" s="45"/>
       <c r="I70" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51" t="s">
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H71" s="51"/>
+      <c r="H71" s="45"/>
       <c r="I71" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="83" t="s">
+      <c r="B73" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
     </row>
     <row r="74" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="84" t="s">
+      <c r="B75" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="86"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="49"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="54"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="58"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="52"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="54"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="58"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="52"/>
     </row>
     <row r="78" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="63"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="65"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="55"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G80" s="49" t="s">
+      <c r="G80" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="49"/>
+      <c r="H80" s="56"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
@@ -10085,18 +10106,18 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="81" t="str">
+      <c r="B83" s="43" t="str">
         <f>IF(D10="","Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="81"/>
-      <c r="D83" s="81"/>
-      <c r="F83" s="82" t="s">
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="F83" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="82"/>
-      <c r="H83" s="82"/>
-      <c r="I83" s="82"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
@@ -10108,19 +10129,28 @@
     <protectedRange sqref="C8:I9 D10:I10 B20:D34 G20:I34 B75:I78 B39:D62 G39:I62 B68:I68 I70 B69:H70 B71:I71 I69:J69" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="51">
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
     <mergeCell ref="G67:H67"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="B38:D38"/>
@@ -10137,28 +10167,19 @@
     <mergeCell ref="G45:I50"/>
     <mergeCell ref="B66:F67"/>
     <mergeCell ref="G66:I66"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
   </mergeCells>
   <conditionalFormatting sqref="B83:D83">
     <cfRule type="expression" priority="2">
@@ -10743,8 +10764,8 @@
   </sheetPr>
   <dimension ref="B5:J100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A64" zoomScale="130" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A37" zoomScale="130" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10762,16 +10783,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -10788,106 +10809,106 @@
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="49" t="str">
+      <c r="D7" s="56" t="str">
         <f>Plan1!B6</f>
         <v>Setembro</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="85">
         <f>'2º Sem - Agosto'!C8:I8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="50" t="str">
+      <c r="C9" s="85" t="str">
         <f>'2º Sem - Agosto'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="50" t="str">
+      <c r="D10" s="85" t="str">
         <f>'2º Sem - Agosto'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="61" t="str">
+      <c r="C12" s="82" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="87"/>
-      <c r="I12" s="88"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="55" t="str">
+      <c r="C13" s="51" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="90"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="95"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="55" t="str">
+      <c r="C14" s="51" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
@@ -10898,221 +10919,221 @@
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="57" t="str">
+      <c r="C15" s="79" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
     </row>
     <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="44" t="s">
+      <c r="F19" s="62"/>
+      <c r="G19" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="47"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="63"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="58"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="58"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="58"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="58"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="59"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="80"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="83"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="58"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="58"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="58"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="59"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="80"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="58"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="58"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="58"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="58"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
     </row>
     <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="65"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
@@ -11125,16 +11146,16 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
     </row>
     <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
@@ -11147,334 +11168,334 @@
       <c r="I37" s="16"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45" t="s">
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="44" t="s">
+      <c r="F38" s="62"/>
+      <c r="G38" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="44"/>
-      <c r="I38" s="47"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="63"/>
     </row>
     <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="70"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="67"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="69"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="71"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="68"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="69"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="71"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="68"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="69"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="71"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="68"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="69"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="71"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="68"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="69"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="71"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="68"/>
     </row>
     <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="71"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="68"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="69"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="71"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="68"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="69"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="71"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="68"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="69"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="71"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="68"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="69"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="71"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="68"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="69"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="71"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="68"/>
     </row>
     <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="71"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="68"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="69"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="71"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="68"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="69"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="71"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="68"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="69"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="71"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="68"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="69"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="71"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="68"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="69"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="71"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="68"/>
     </row>
     <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="71"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="68"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="69"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="71"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="68"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="69"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="71"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="68"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="69"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="71"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="68"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="69"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="71"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="68"/>
     </row>
     <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="72"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="74"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="71"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
     </row>
     <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="75" t="s">
+      <c r="B66" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="79" t="s">
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="79"/>
-      <c r="I66" s="80"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="77"/>
     </row>
     <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="94"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="95"/>
-      <c r="E67" s="95"/>
-      <c r="F67" s="95"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
       <c r="G67" s="91" t="s">
         <v>24</v>
       </c>
@@ -11484,123 +11505,123 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="68" t="s">
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="H68" s="68"/>
+      <c r="H68" s="65"/>
       <c r="I68" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="51" t="s">
+      <c r="B69" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="68" t="s">
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="H69" s="68"/>
+      <c r="H69" s="65"/>
       <c r="I69" s="42" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="73"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="51" t="s">
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H70" s="51"/>
+      <c r="H70" s="45"/>
       <c r="I70" s="42" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="72"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="73"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
       <c r="I71" s="42"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="83" t="s">
+      <c r="B73" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
     </row>
     <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="84" t="s">
+      <c r="B75" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="86"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="49"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="54"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="58"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="52"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="54"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="58"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="52"/>
     </row>
     <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="63"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="65"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="55"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="49" t="s">
+      <c r="G80" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="49"/>
+      <c r="H80" s="56"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
@@ -11615,18 +11636,18 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="81" t="str">
+      <c r="B83" s="43" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="81"/>
-      <c r="D83" s="81"/>
-      <c r="F83" s="82" t="s">
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="F83" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="82"/>
-      <c r="H83" s="82"/>
-      <c r="I83" s="82"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
@@ -11656,9 +11677,9 @@
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C97" s="4"/>
-      <c r="D97" s="82"/>
-      <c r="E97" s="82"/>
-      <c r="F97" s="82"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="44"/>
       <c r="G97" s="4"/>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.3">
@@ -11684,12 +11705,48 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="B20:D34 G20:I34 B75 G39:I62 G68:I69 B71:I71 G70:I70" name="Intervalo1"/>
+    <protectedRange sqref="B20:D34 G20:I34 B75 G39:I62 B71:I71 G68:I70" name="Intervalo1"/>
     <protectedRange sqref="B39:D62" name="Intervalo1_1"/>
     <protectedRange sqref="B68:F69" name="Intervalo1_2"/>
     <protectedRange sqref="B70:F70" name="Intervalo1_3"/>
   </protectedRanges>
   <mergeCells count="52">
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="B83:D83"/>
@@ -11706,42 +11763,6 @@
     <mergeCell ref="B75:I78"/>
     <mergeCell ref="G80:H80"/>
     <mergeCell ref="B66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B20:D24"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:I11 B16:I16">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -12336,8 +12357,8 @@
   </sheetPr>
   <dimension ref="B5:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A3" zoomScale="145" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:I8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69:F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12355,16 +12376,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -12433,270 +12454,282 @@
       <c r="H10" s="96"/>
       <c r="I10" s="96"/>
     </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="61" t="str">
+      <c r="C12" s="103" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="87"/>
-      <c r="I12" s="88"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+    </row>
+    <row r="13" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="55" t="str">
+      <c r="C13" s="104" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="90"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="94"/>
+      <c r="I13" s="95"/>
+    </row>
+    <row r="14" spans="2:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="55" t="str">
+      <c r="C14" s="104" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="57" t="str">
+      <c r="C15" s="105" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
     </row>
     <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="44" t="s">
+      <c r="F19" s="62"/>
+      <c r="G19" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="47"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="63"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
+      <c r="B20" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="58"/>
+      <c r="G20" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="58"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="58"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="58"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="59"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="80"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
+      <c r="B25" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
+      <c r="G25" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="82"/>
+      <c r="I25" s="83"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="58"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="58"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="58"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="59"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="80"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
+      <c r="B30" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="58"/>
+      <c r="G30" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="58"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="58"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="58"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
     </row>
     <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="65"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
@@ -12709,16 +12742,16 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
     </row>
     <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
@@ -12731,326 +12764,334 @@
       <c r="I37" s="16"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45" t="s">
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="44" t="s">
+      <c r="F38" s="62"/>
+      <c r="G38" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="44"/>
-      <c r="I38" s="47"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="63"/>
     </row>
     <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="67"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
+      <c r="B39" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="70"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="67"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="69"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="71"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="68"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="69"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="71"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="68"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="69"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="71"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="68"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="69"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="71"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="68"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="69"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="71"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="68"/>
     </row>
     <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="69"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="71"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="68"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="69"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="71"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="68"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="69"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="71"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="68"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="69"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="71"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="68"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="69"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="71"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="68"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="69"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="71"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="68"/>
     </row>
     <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="69"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="71"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="68"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="69"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="71"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="68"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="69"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="71"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="68"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="69"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="71"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="68"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="69"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="71"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="68"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="69"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="71"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="68"/>
     </row>
     <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="69"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="71"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="68"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="69"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="71"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="68"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="69"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="71"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="68"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="69"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="71"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="68"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="69"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="71"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="68"/>
     </row>
     <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="72"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="74"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="71"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
     </row>
     <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="75" t="s">
+      <c r="B66" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="79" t="s">
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="79"/>
-      <c r="I66" s="80"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="77"/>
     </row>
     <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="94"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="95"/>
-      <c r="E67" s="95"/>
-      <c r="F67" s="95"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
       <c r="G67" s="91" t="s">
         <v>24</v>
       </c>
@@ -13060,103 +13101,105 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="67"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
+      <c r="B68" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
       <c r="I68" s="25"/>
     </row>
     <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="69"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
       <c r="I69" s="26"/>
     </row>
     <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="69"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
       <c r="I70" s="26"/>
     </row>
     <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="72"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="73"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
       <c r="I71" s="27"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="83" t="s">
+      <c r="B73" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
     </row>
     <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="84"/>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="86"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="49"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="54"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="58"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="52"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="54"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="58"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="52"/>
     </row>
     <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="63"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="65"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="55"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="49" t="s">
+      <c r="G80" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="49"/>
+      <c r="H80" s="56"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
@@ -13171,18 +13214,18 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="81" t="str">
+      <c r="B83" s="43" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="81"/>
-      <c r="D83" s="81"/>
-      <c r="F83" s="82" t="s">
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="F83" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="82"/>
-      <c r="H83" s="82"/>
-      <c r="I83" s="82"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
@@ -13191,22 +13234,31 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
+    <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 G39:I62" name="Intervalo1"/>
+    <protectedRange sqref="B39:D62" name="Intervalo1_1"/>
   </protectedRanges>
   <mergeCells count="50">
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
     <mergeCell ref="B66:F67"/>
     <mergeCell ref="G66:I66"/>
     <mergeCell ref="G67:H67"/>
@@ -13223,27 +13275,19 @@
     <mergeCell ref="B64:I64"/>
     <mergeCell ref="B45:D50"/>
     <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I11 B7:C7 B16:I16">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
@@ -13852,16 +13896,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
@@ -13874,16 +13918,16 @@
       <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -13934,47 +13978,47 @@
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="61" t="str">
+      <c r="C12" s="82" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="87"/>
-      <c r="I12" s="88"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="55" t="str">
+      <c r="C13" s="51" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="90"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="95"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="55" t="str">
+      <c r="C14" s="51" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
@@ -13985,215 +14029,215 @@
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="57" t="str">
+      <c r="C15" s="79" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
     </row>
     <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="44" t="s">
+      <c r="F19" s="62"/>
+      <c r="G19" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="47"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="63"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="58"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="58"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="58"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="58"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="59"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="80"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="83"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="58"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="58"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="58"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="59"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="80"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="58"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="58"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="58"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="58"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
     </row>
     <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="65"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
@@ -14206,16 +14250,16 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
     </row>
     <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="29"/>
@@ -14228,326 +14272,326 @@
       <c r="I37" s="29"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45" t="s">
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="44" t="s">
+      <c r="F38" s="62"/>
+      <c r="G38" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="44"/>
-      <c r="I38" s="47"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="63"/>
     </row>
     <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="67"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="70"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="67"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="69"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="71"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="68"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="69"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="71"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="68"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="69"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="71"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="68"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="69"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="71"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="68"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="69"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="71"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="68"/>
     </row>
     <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="60"/>
-      <c r="C45" s="61"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="82"/>
       <c r="D45" s="97"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
       <c r="G45" s="100"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="62"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="83"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="54"/>
-      <c r="C46" s="55"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="51"/>
       <c r="D46" s="98"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="101"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="58"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="52"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="54"/>
-      <c r="C47" s="55"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="98"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="101"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="58"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="52"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="54"/>
-      <c r="C48" s="55"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="98"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="101"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="58"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="52"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="54"/>
-      <c r="C49" s="55"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="98"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G49" s="101"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="58"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="52"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="56"/>
-      <c r="C50" s="57"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="79"/>
       <c r="D50" s="99"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
       <c r="G50" s="102"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="59"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="80"/>
     </row>
     <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="60"/>
-      <c r="C51" s="61"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="82"/>
       <c r="D51" s="97"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
       <c r="G51" s="100"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="62"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="83"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="54"/>
-      <c r="C52" s="55"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="51"/>
       <c r="D52" s="98"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G52" s="101"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="58"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="54"/>
-      <c r="C53" s="55"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="51"/>
       <c r="D53" s="98"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="101"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="58"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="52"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="54"/>
-      <c r="C54" s="55"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="51"/>
       <c r="D54" s="98"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="101"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="58"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="52"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="54"/>
-      <c r="C55" s="55"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="51"/>
       <c r="D55" s="98"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="101"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="58"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="52"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="56"/>
-      <c r="C56" s="57"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="79"/>
       <c r="D56" s="99"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
       <c r="G56" s="102"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="59"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="80"/>
     </row>
     <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="69"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="71"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="68"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="69"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="71"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="68"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="69"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="71"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="68"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="69"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="71"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="68"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="69"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="71"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="68"/>
     </row>
     <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="72"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="74"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="71"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
     </row>
     <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="75" t="s">
+      <c r="B66" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="79" t="s">
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="79"/>
-      <c r="I66" s="80"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="77"/>
     </row>
     <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="94"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="95"/>
-      <c r="E67" s="95"/>
-      <c r="F67" s="95"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
       <c r="G67" s="91" t="s">
         <v>24</v>
       </c>
@@ -14557,103 +14601,103 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="67"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
       <c r="I68" s="31"/>
     </row>
     <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="69"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
       <c r="I69" s="32"/>
     </row>
     <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="69"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
       <c r="I70" s="32"/>
     </row>
     <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="72"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="73"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
       <c r="I71" s="33"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="83" t="s">
+      <c r="B73" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
     </row>
     <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="84"/>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="86"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="49"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="54"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="58"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="52"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="54"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="58"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="52"/>
     </row>
     <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="63"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="65"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="55"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="49" t="s">
+      <c r="G80" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="49"/>
+      <c r="H80" s="56"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
@@ -14668,18 +14712,18 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="81" t="str">
+      <c r="B83" s="43" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="81"/>
-      <c r="D83" s="81"/>
-      <c r="F83" s="82" t="s">
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="F83" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="82"/>
-      <c r="H83" s="82"/>
-      <c r="I83" s="82"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
@@ -14691,6 +14735,44 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="51">
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B66:F67"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="C8:I8"/>
@@ -14704,44 +14786,6 @@
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I11 B7 B16:I16">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
@@ -15367,6 +15411,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Procedimento_x0020_Relacionado xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
@@ -15378,15 +15431,6 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15647,6 +15691,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF4BCC7-3A0E-4F11-8315-9CA8DFA05F4F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -15661,14 +15713,6 @@
     <ds:schemaRef ds:uri="feadaf30-646e-4180-8499-c12b20b15a5f"/>
     <ds:schemaRef ds:uri="948e1b9c-bee8-44de-8cc6-706e5b780eae"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/entrega/acompanhamento-mensal.xlsx
+++ b/entrega/acompanhamento-mensal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Dropbox\Documentos\FSARENA\TCC\rnappi\entrega\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE52DE16-8412-4B95-9B9B-E032D2F307B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B5CD1A-4636-40E6-9091-CCC6ABC70E9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,7 +294,7 @@
     <t>Estudaram, testaram o KNN e concluiram que pode ser uma boa técnica para o protótipo</t>
   </si>
   <si>
-    <t xml:space="preserve">Finalização e Entrega de todos os entregáveis </t>
+    <t xml:space="preserve">Finalização de todos os entregáveis </t>
   </si>
 </sst>
 </file>
@@ -1003,54 +1003,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1064,6 +1016,63 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1108,31 +1117,37 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1147,23 +1162,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1182,15 +1191,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1490,11 +1490,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1530,11 +1530,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9249,16 +9249,16 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -9275,98 +9275,98 @@
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="56" t="str">
+      <c r="D7" s="49" t="str">
         <f>Plan1!B5</f>
         <v>Agosto</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
       <c r="G12" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="39" t="s">
         <v>6</v>
       </c>
@@ -9377,17 +9377,17 @@
       <c r="B15" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
       <c r="G15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C16" s="28"/>
@@ -9396,207 +9396,207 @@
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="60" t="s">
+      <c r="F19" s="46"/>
+      <c r="G19" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="63"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="58"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="58"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="58"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="58"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="80"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="58"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="58"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="58"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="78"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="80"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="58"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="58"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="58"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="52"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="58"/>
     </row>
     <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
@@ -9609,16 +9609,16 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
     </row>
     <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
@@ -9631,467 +9631,467 @@
       <c r="I37" s="16"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="61" t="s">
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="62"/>
-      <c r="G38" s="60" t="s">
+      <c r="F38" s="46"/>
+      <c r="G38" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="60"/>
-      <c r="I38" s="63"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="47"/>
     </row>
     <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="67"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="70"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="66"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="68"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="71"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="66"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="68"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="71"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="66"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="68"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="71"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="66"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="68"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="71"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="66"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="68"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="71"/>
     </row>
     <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="68"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="71"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="66"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="68"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="71"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="66"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="68"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="71"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="66"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="68"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="71"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="66"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="68"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="71"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="66"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="68"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="71"/>
     </row>
     <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="68"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="71"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="66"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="68"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="71"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="66"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="68"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="71"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="66"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="68"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="71"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="66"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="68"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="71"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="66"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="68"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="71"/>
     </row>
     <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="66" t="s">
+      <c r="B57" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="68"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="71"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="66"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="68"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="71"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="66"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="68"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="71"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="66"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="68"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="71"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="66"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="68"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="71"/>
     </row>
     <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="69"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="71"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="74"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="58" t="s">
+      <c r="B64" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
     </row>
     <row r="65" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="72" t="s">
+      <c r="B66" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="76" t="s">
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="76"/>
-      <c r="I66" s="77"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="80"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="74"/>
-      <c r="C67" s="75"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="57" t="s">
+      <c r="B67" s="77"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="57"/>
+      <c r="H67" s="66"/>
       <c r="I67" s="41" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="45" t="s">
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="H68" s="45"/>
+      <c r="H68" s="51"/>
       <c r="I68" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="45" t="s">
+      <c r="B69" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45" t="s">
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="H69" s="45"/>
+      <c r="H69" s="51"/>
       <c r="I69" s="37" t="s">
         <v>34</v>
       </c>
       <c r="J69" s="38"/>
     </row>
     <row r="70" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="45" t="s">
+      <c r="B70" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45" t="s">
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="H70" s="45"/>
+      <c r="H70" s="51"/>
       <c r="I70" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="45" t="s">
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="H71" s="45"/>
+      <c r="H71" s="51"/>
       <c r="I71" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="46" t="s">
+      <c r="B73" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
     </row>
     <row r="74" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="47" t="s">
+      <c r="B75" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="49"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="86"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="50"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="52"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="58"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="50"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="52"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="58"/>
     </row>
     <row r="78" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="53"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="55"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="65"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G80" s="56" t="s">
+      <c r="G80" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="56"/>
+      <c r="H80" s="49"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
@@ -10106,18 +10106,18 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="43" t="str">
+      <c r="B83" s="81" t="str">
         <f>IF(D10="","Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="F83" s="44" t="s">
+      <c r="C83" s="81"/>
+      <c r="D83" s="81"/>
+      <c r="F83" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
+      <c r="G83" s="82"/>
+      <c r="H83" s="82"/>
+      <c r="I83" s="82"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
@@ -10129,6 +10129,41 @@
     <protectedRange sqref="C8:I9 D10:I10 B20:D34 G20:I34 B75:I78 B39:D62 G39:I62 B68:I68 I70 B69:H70 B71:I71 I69:J69" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="51">
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
+    <mergeCell ref="B66:F67"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:I19"/>
@@ -10145,41 +10180,6 @@
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
   </mergeCells>
   <conditionalFormatting sqref="B83:D83">
     <cfRule type="expression" priority="2">
@@ -10783,16 +10783,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -10809,106 +10809,106 @@
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="56" t="str">
+      <c r="D7" s="49" t="str">
         <f>Plan1!B6</f>
         <v>Setembro</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="50">
         <f>'2º Sem - Agosto'!C8:I8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="85" t="str">
+      <c r="C9" s="50" t="str">
         <f>'2º Sem - Agosto'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="85" t="str">
+      <c r="D10" s="50" t="str">
         <f>'2º Sem - Agosto'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="82" t="str">
+      <c r="C12" s="61" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="88"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="51" t="str">
+      <c r="C13" s="55" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="95"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="90"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="51" t="str">
+      <c r="C14" s="55" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
@@ -10919,221 +10919,221 @@
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="79" t="str">
+      <c r="C15" s="57" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="87"/>
-      <c r="I15" s="88"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="60" t="s">
+      <c r="F19" s="46"/>
+      <c r="G19" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="63"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="58"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="58"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="58"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="58"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="80"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="58"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="58"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="58"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="78"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="80"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="58"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="58"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="58"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="52"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="58"/>
     </row>
     <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
@@ -11146,16 +11146,16 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
     </row>
     <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
@@ -11168,334 +11168,334 @@
       <c r="I37" s="16"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="61" t="s">
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="62"/>
-      <c r="G38" s="60" t="s">
+      <c r="F38" s="46"/>
+      <c r="G38" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="60"/>
-      <c r="I38" s="63"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="47"/>
     </row>
     <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="67"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="70"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="66"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="68"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="71"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="66"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="68"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="71"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="66"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="68"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="71"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="66"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="68"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="71"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="66"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="68"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="71"/>
     </row>
     <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="68"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="71"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="66"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="68"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="71"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="66"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="68"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="71"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="66"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="68"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="71"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="66"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="68"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="71"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="66"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="68"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="71"/>
     </row>
     <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="68"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="71"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="66"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="68"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="71"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="66"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="68"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="71"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="66"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="68"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="71"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="66"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="68"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="71"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="66"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="68"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="71"/>
     </row>
     <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="66" t="s">
+      <c r="B57" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="68"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="71"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="66"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="68"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="71"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="66"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="68"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="71"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="66"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="68"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="71"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="66"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="68"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="71"/>
     </row>
     <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="69"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="71"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="74"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="58" t="s">
+      <c r="B64" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
     </row>
     <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="72" t="s">
+      <c r="B66" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="76" t="s">
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="76"/>
-      <c r="I66" s="77"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="80"/>
     </row>
     <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="89"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
+      <c r="B67" s="94"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="95"/>
       <c r="G67" s="91" t="s">
         <v>24</v>
       </c>
@@ -11505,123 +11505,123 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="65" t="s">
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="H68" s="65"/>
+      <c r="H68" s="68"/>
       <c r="I68" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="45" t="s">
+      <c r="B69" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="65" t="s">
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="H69" s="65"/>
+      <c r="H69" s="68"/>
       <c r="I69" s="42" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="69" t="s">
+      <c r="B70" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="45" t="s">
+      <c r="C70" s="73"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="H70" s="45"/>
+      <c r="H70" s="51"/>
       <c r="I70" s="42" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="69"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
       <c r="I71" s="42"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="46" t="s">
+      <c r="B73" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
     </row>
     <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="47" t="s">
+      <c r="B75" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="49"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="86"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="50"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="52"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="58"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="50"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="52"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="58"/>
     </row>
     <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="53"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="55"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="65"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="56" t="s">
+      <c r="G80" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="56"/>
+      <c r="H80" s="49"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
@@ -11636,18 +11636,18 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="43" t="str">
+      <c r="B83" s="81" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="F83" s="44" t="s">
+      <c r="C83" s="81"/>
+      <c r="D83" s="81"/>
+      <c r="F83" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
+      <c r="G83" s="82"/>
+      <c r="H83" s="82"/>
+      <c r="I83" s="82"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
@@ -11677,9 +11677,9 @@
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C97" s="4"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="44"/>
-      <c r="F97" s="44"/>
+      <c r="D97" s="82"/>
+      <c r="E97" s="82"/>
+      <c r="F97" s="82"/>
       <c r="G97" s="4"/>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.3">
@@ -11711,6 +11711,42 @@
     <protectedRange sqref="B70:F70" name="Intervalo1_3"/>
   </protectedRanges>
   <mergeCells count="52">
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B66:F67"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
     <mergeCell ref="D97:F97"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:F19"/>
@@ -11727,42 +11763,6 @@
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B66:F67"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:I11 B16:I16">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -12357,8 +12357,8 @@
   </sheetPr>
   <dimension ref="B5:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:F69"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12376,16 +12376,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -12458,47 +12458,47 @@
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="103" t="str">
+      <c r="C12" s="97" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="88"/>
     </row>
     <row r="13" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="104" t="str">
+      <c r="C13" s="98" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="95"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="90"/>
     </row>
     <row r="14" spans="2:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="104" t="str">
+      <c r="C14" s="98" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
@@ -12509,227 +12509,227 @@
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="105" t="str">
+      <c r="C15" s="99" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="87"/>
-      <c r="I15" s="88"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="60" t="s">
+      <c r="F19" s="46"/>
+      <c r="G19" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="63"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="58"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="58"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="58"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="58"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="80"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="82" t="s">
+      <c r="G25" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="58"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="58"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="58"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="78"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="80"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="51" t="s">
+      <c r="G30" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="58"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="58"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="58"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="52"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="58"/>
     </row>
     <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
@@ -12742,16 +12742,16 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
     </row>
     <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
@@ -12764,334 +12764,334 @@
       <c r="I37" s="16"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="61" t="s">
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="62"/>
-      <c r="G38" s="60" t="s">
+      <c r="F38" s="46"/>
+      <c r="G38" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="60"/>
-      <c r="I38" s="63"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="47"/>
     </row>
     <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="67"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="70"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="66"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="68"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="71"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="66"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="68"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="71"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="66"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="68"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="71"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="66"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="68"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="71"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="66"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="68"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="71"/>
     </row>
     <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="68"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="71"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="66"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="68"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="71"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="66"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="68"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="71"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="66"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="68"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="71"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="66"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="68"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="71"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="66"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="68"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="71"/>
     </row>
     <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="68"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="71"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="66"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="68"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="71"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="66"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="68"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="71"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="66"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="68"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="71"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="66"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="68"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="71"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="66"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="68"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="71"/>
     </row>
     <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="66" t="s">
+      <c r="B57" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="68"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="71"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="66"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="68"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="71"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="66"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="68"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="71"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="66"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="68"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="71"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="66"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="68"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="71"/>
     </row>
     <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="69"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="71"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="74"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="58" t="s">
+      <c r="B64" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
     </row>
     <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="72" t="s">
+      <c r="B66" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="76" t="s">
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="76"/>
-      <c r="I66" s="77"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="80"/>
     </row>
     <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="89"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
+      <c r="B67" s="94"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="95"/>
       <c r="G67" s="91" t="s">
         <v>24</v>
       </c>
@@ -13101,105 +13101,105 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="64" t="s">
+      <c r="B68" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
       <c r="I68" s="25"/>
     </row>
     <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="66"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
       <c r="I69" s="26"/>
     </row>
     <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="66"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
       <c r="I70" s="26"/>
     </row>
     <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="69"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
       <c r="I71" s="27"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="46" t="s">
+      <c r="B73" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
     </row>
     <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="47"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="49"/>
+      <c r="B75" s="84"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="86"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="50"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="52"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="58"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="50"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="52"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="58"/>
     </row>
     <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="53"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="55"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="65"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="56" t="s">
+      <c r="G80" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="56"/>
+      <c r="H80" s="49"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
@@ -13214,18 +13214,18 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="43" t="str">
+      <c r="B83" s="81" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="F83" s="44" t="s">
+      <c r="C83" s="81"/>
+      <c r="D83" s="81"/>
+      <c r="F83" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
+      <c r="G83" s="82"/>
+      <c r="H83" s="82"/>
+      <c r="I83" s="82"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
@@ -13238,27 +13238,19 @@
     <protectedRange sqref="B39:D62" name="Intervalo1_1"/>
   </protectedRanges>
   <mergeCells count="50">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
     <mergeCell ref="B66:F67"/>
     <mergeCell ref="G66:I66"/>
     <mergeCell ref="G67:H67"/>
@@ -13275,19 +13267,27 @@
     <mergeCell ref="B64:I64"/>
     <mergeCell ref="B45:D50"/>
     <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I11 B7:C7 B16:I16">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
@@ -13896,16 +13896,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
@@ -13918,16 +13918,16 @@
       <c r="I6" s="30"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -13978,47 +13978,47 @@
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="82" t="str">
+      <c r="C12" s="61" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="88"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="51" t="str">
+      <c r="C13" s="55" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="95"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="90"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="51" t="str">
+      <c r="C14" s="55" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
@@ -14029,215 +14029,215 @@
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="79" t="str">
+      <c r="C15" s="57" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="87"/>
-      <c r="I15" s="88"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="60" t="s">
+      <c r="F19" s="46"/>
+      <c r="G19" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="63"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="58"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="58"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="58"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="58"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="80"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="58"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="58"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="58"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="78"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="80"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="58"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="58"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="58"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="52"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="58"/>
     </row>
     <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
@@ -14250,16 +14250,16 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
     </row>
     <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="29"/>
@@ -14272,326 +14272,326 @@
       <c r="I37" s="29"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="61" t="s">
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="62"/>
-      <c r="G38" s="60" t="s">
+      <c r="F38" s="46"/>
+      <c r="G38" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="60"/>
-      <c r="I38" s="63"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="47"/>
     </row>
     <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="64"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="67"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="70"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="66"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="68"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="71"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="66"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="68"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="71"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="66"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="68"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="71"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="66"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="68"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="71"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="66"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="68"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="71"/>
     </row>
     <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="81"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="97"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="100"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="83"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="62"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="50"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="98"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="101"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="101"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="52"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="58"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="98"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="101"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="101"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="52"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="58"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="50"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="98"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="101"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="101"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="52"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="58"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="50"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="98"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="101"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="101"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="52"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="58"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="78"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="99"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="102"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="80"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="59"/>
     </row>
     <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="81"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="97"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="100"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="83"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="62"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="50"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="98"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="101"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="101"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="52"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="58"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="50"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="98"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="101"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="101"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="52"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="58"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="50"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="98"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="101"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="101"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="52"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="58"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="50"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="98"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="101"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="101"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="52"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="58"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="78"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="99"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="102"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="80"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="59"/>
     </row>
     <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="66"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="68"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="71"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="66"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="68"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="71"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="66"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="68"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="71"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="66"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="68"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="71"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="66"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="68"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="71"/>
     </row>
     <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="69"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="71"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="74"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="58" t="s">
+      <c r="B64" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
     </row>
     <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="72" t="s">
+      <c r="B66" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="76" t="s">
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="76"/>
-      <c r="I66" s="77"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="80"/>
     </row>
     <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="89"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
+      <c r="B67" s="94"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="95"/>
       <c r="G67" s="91" t="s">
         <v>24</v>
       </c>
@@ -14601,103 +14601,103 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="64"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
       <c r="I68" s="31"/>
     </row>
     <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="66"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
       <c r="I69" s="32"/>
     </row>
     <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="66"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
       <c r="I70" s="32"/>
     </row>
     <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="69"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
       <c r="I71" s="33"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="46" t="s">
+      <c r="B73" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
     </row>
     <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="47"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="49"/>
+      <c r="B75" s="84"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="86"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="50"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="52"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="58"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="50"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="52"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="58"/>
     </row>
     <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="53"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="55"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="65"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="56" t="s">
+      <c r="G80" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="56"/>
+      <c r="H80" s="49"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
@@ -14712,18 +14712,18 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="43" t="str">
+      <c r="B83" s="81" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="F83" s="44" t="s">
+      <c r="C83" s="81"/>
+      <c r="D83" s="81"/>
+      <c r="F83" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
+      <c r="G83" s="82"/>
+      <c r="H83" s="82"/>
+      <c r="I83" s="82"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
@@ -14735,31 +14735,19 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="51">
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B7:I7"/>
     <mergeCell ref="G38:I38"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:F19"/>
@@ -14773,19 +14761,31 @@
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B66:F67"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I11 B7 B16:I16">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
@@ -15411,15 +15411,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Procedimento_x0020_Relacionado xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
@@ -15431,6 +15422,15 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15691,14 +15691,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF4BCC7-3A0E-4F11-8315-9CA8DFA05F4F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -15713,6 +15705,14 @@
     <ds:schemaRef ds:uri="feadaf30-646e-4180-8499-c12b20b15a5f"/>
     <ds:schemaRef ds:uri="948e1b9c-bee8-44de-8cc6-706e5b780eae"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/entrega/acompanhamento-mensal.xlsx
+++ b/entrega/acompanhamento-mensal.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Dropbox\Documentos\FSARENA\TCC\rnappi\entrega\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\005614\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B5CD1A-4636-40E6-9091-CCC6ABC70E9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="818" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2º Sem - Agosto" sheetId="5" r:id="rId1"/>
@@ -60,7 +59,7 @@
     <definedName name="Texto9" localSheetId="2">'2º Sem - Outubro'!$B$31</definedName>
     <definedName name="Texto9" localSheetId="1">'2º Sem - Setembro'!$B$31</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -76,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="64">
   <si>
     <t>RELATÓRIO DE ACOMPANHAMENTO MENSAL DO TCC</t>
   </si>
@@ -296,11 +295,17 @@
   <si>
     <t xml:space="preserve">Finalização de todos os entregáveis </t>
   </si>
+  <si>
+    <t>Novembro</t>
+  </si>
+  <si>
+    <t>Avançaram no questão do modelo proposta e nas técnica de IA, esforço vísivel do Masanori e do Willian. Avançaram no relatório mas não concluiram conforme previsto</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1003,6 +1008,54 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1016,63 +1069,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1117,37 +1113,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1161,6 +1151,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1728,13 +1733,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1795,13 +1800,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1866,9 +1871,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1933,9 +1938,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1994,15 +1999,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2061,15 +2066,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2130,13 +2135,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2201,7 +2206,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2264,13 +2269,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2335,7 +2340,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2402,7 +2407,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2465,13 +2470,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2536,9 +2541,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2599,13 +2604,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2670,7 +2675,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2733,13 +2738,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2804,9 +2809,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2867,13 +2872,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2938,7 +2943,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3001,13 +3006,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3072,9 +3077,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3209,13 +3214,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3280,7 +3285,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3343,13 +3348,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3414,9 +3419,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3556,13 +3561,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3623,13 +3628,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3694,9 +3699,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3761,9 +3766,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3822,15 +3827,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3889,15 +3894,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3958,13 +3963,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4029,7 +4034,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4092,13 +4097,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4163,7 +4168,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4230,7 +4235,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4293,13 +4298,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4364,9 +4369,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4427,13 +4432,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4498,7 +4503,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4561,13 +4566,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4632,9 +4637,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4695,13 +4700,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4766,7 +4771,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4829,13 +4834,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4900,9 +4905,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5037,13 +5042,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5108,7 +5113,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5171,13 +5176,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5242,9 +5247,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5384,13 +5389,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5451,13 +5456,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5522,9 +5527,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5589,9 +5594,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5650,15 +5655,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5717,15 +5722,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5786,13 +5791,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5857,7 +5862,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5920,13 +5925,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5991,7 +5996,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6058,7 +6063,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6121,13 +6126,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6192,9 +6197,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6255,13 +6260,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6326,7 +6331,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6389,13 +6394,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6460,9 +6465,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6523,13 +6528,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6594,7 +6599,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6657,13 +6662,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6728,9 +6733,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6865,13 +6870,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6936,9 +6941,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6999,13 +7004,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7070,9 +7075,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7212,13 +7217,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7279,13 +7284,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7350,9 +7355,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7417,9 +7422,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7478,15 +7483,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7545,15 +7550,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7614,13 +7619,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7685,7 +7690,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -7748,13 +7753,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7819,9 +7824,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7886,7 +7891,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -7949,13 +7954,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8020,9 +8025,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8083,13 +8088,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8154,7 +8159,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8217,13 +8222,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8288,9 +8293,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8351,11 +8356,11 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -8422,7 +8427,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8485,13 +8490,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8556,9 +8561,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8693,13 +8698,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8764,7 +8769,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8827,13 +8832,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8898,9 +8903,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9219,7 +9224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -9229,38 +9234,38 @@
       <selection activeCell="B70" sqref="B70:F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="48" t="s">
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -9270,335 +9275,335 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="49" t="str">
+      <c r="D7" s="56" t="str">
         <f>Plan1!B5</f>
         <v>Agosto</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="39" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
     </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="53" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="43" t="s">
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="44" t="s">
+      <c r="F19" s="62"/>
+      <c r="G19" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="47"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="54" t="s">
+      <c r="H19" s="60"/>
+      <c r="I19" s="63"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="58"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="58"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="58"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="58"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="59"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="60" t="s">
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="80"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="83"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="58"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="58"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="58"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="59"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="54" t="s">
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="80"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="58"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="58"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="58"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="58"/>
-    </row>
-    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="65"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -9608,19 +9613,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="53" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -9630,473 +9635,473 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="43" t="s">
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45" t="s">
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="44" t="s">
+      <c r="F38" s="62"/>
+      <c r="G38" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="44"/>
-      <c r="I38" s="47"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="67" t="s">
+      <c r="H38" s="60"/>
+      <c r="I38" s="63"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="70"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="69"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="67"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="66"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="71"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="69"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="68"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="66"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="71"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="69"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="68"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="66"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="71"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="69"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="68"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="66"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="71"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="69"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="68"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="66"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="71"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="69" t="s">
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="68"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="71"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="69"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="68"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="66"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="71"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="69"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="68"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="66"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="71"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="69"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="68"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="66"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="71"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="69"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="68"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="66"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="71"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="69"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="68"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="66"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="71"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="69" t="s">
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="68"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="71"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="69"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="68"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="66"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="71"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="69"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="68"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="66"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="71"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="69"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="68"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="66"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="71"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="69"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="68"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="66"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="71"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="69"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="68"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="66"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="71"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="69" t="s">
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="68"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="71"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="69"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="68"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="66"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="71"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="69"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="68"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="66"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="71"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="69"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="68"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="66"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="71"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="69"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="68"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="66"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="71"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="72"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="68"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="69"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="74"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="53" t="s">
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="71"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-    </row>
-    <row r="65" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="75" t="s">
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+    </row>
+    <row r="65" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="79" t="s">
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="79"/>
-      <c r="I66" s="80"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="77"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="66" t="s">
+      <c r="H66" s="76"/>
+      <c r="I66" s="77"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="74"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="66"/>
+      <c r="H67" s="57"/>
       <c r="I67" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="51" t="s">
+    <row r="68" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51" t="s">
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H68" s="51"/>
+      <c r="H68" s="45"/>
       <c r="I68" s="37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="51" t="s">
+    <row r="69" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51" t="s">
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H69" s="51"/>
+      <c r="H69" s="45"/>
       <c r="I69" s="37" t="s">
         <v>34</v>
       </c>
       <c r="J69" s="38"/>
     </row>
-    <row r="70" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="51" t="s">
+    <row r="70" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51" t="s">
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H70" s="51"/>
+      <c r="H70" s="45"/>
       <c r="I70" s="37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="51" t="s">
+    <row r="71" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51" t="s">
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H71" s="51"/>
+      <c r="H71" s="45"/>
       <c r="I71" s="37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="83" t="s">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
-    </row>
-    <row r="74" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="84" t="s">
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+    </row>
+    <row r="74" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="86"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="54"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="58"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="54"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="58"/>
-    </row>
-    <row r="78" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="63"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="65"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G80" s="49" t="s">
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="49"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="50"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="52"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="52"/>
+    </row>
+    <row r="78" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="53"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="55"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G80" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="49"/>
+      <c r="H80" s="56"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -10105,21 +10110,21 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="81" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="43" t="str">
         <f>IF(D10="","Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="81"/>
-      <c r="D83" s="81"/>
-      <c r="F83" s="82" t="s">
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="F83" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="82"/>
-      <c r="H83" s="82"/>
-      <c r="I83" s="82"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+    </row>
+    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>30</v>
       </c>
@@ -10129,19 +10134,28 @@
     <protectedRange sqref="C8:I9 D10:I10 B20:D34 G20:I34 B75:I78 B39:D62 G39:I62 B68:I68 I70 B69:H70 B71:I71 I69:J69" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="51">
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
     <mergeCell ref="G67:H67"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="B38:D38"/>
@@ -10158,28 +10172,19 @@
     <mergeCell ref="G45:I50"/>
     <mergeCell ref="B66:F67"/>
     <mergeCell ref="G66:I66"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
   </mergeCells>
   <conditionalFormatting sqref="B83:D83">
     <cfRule type="expression" priority="2">
@@ -10210,13 +10215,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10232,13 +10237,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>160020</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10258,9 +10263,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10280,9 +10285,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10296,15 +10301,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10318,15 +10323,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10342,13 +10347,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10368,7 +10373,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10386,13 +10391,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10412,7 +10417,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10434,7 +10439,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10452,13 +10457,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10478,9 +10483,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10496,13 +10501,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10522,7 +10527,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10540,13 +10545,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10566,9 +10571,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10584,13 +10589,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10610,7 +10615,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10628,13 +10633,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10654,9 +10659,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10672,13 +10677,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10698,7 +10703,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10716,13 +10721,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10742,9 +10747,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10758,7 +10763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -10768,33 +10773,33 @@
       <selection activeCell="B39" sqref="B39:D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="48" t="s">
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -10804,338 +10809,338 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="49" t="str">
+      <c r="D7" s="56" t="str">
         <f>Plan1!B6</f>
         <v>Setembro</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="85">
         <f>'2º Sem - Agosto'!C8:I8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="50" t="str">
+      <c r="C9" s="85" t="str">
         <f>'2º Sem - Agosto'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="50" t="str">
+      <c r="D10" s="85" t="str">
         <f>'2º Sem - Agosto'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="61" t="str">
+      <c r="C12" s="82" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="87"/>
-      <c r="I12" s="88"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="55" t="str">
+      <c r="C13" s="51" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="90"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="94"/>
+      <c r="I13" s="95"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="55" t="str">
+      <c r="C14" s="51" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="57" t="str">
+      <c r="C15" s="79" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="53" t="s">
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="43" t="s">
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="44" t="s">
+      <c r="F19" s="62"/>
+      <c r="G19" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="47"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="54" t="s">
+      <c r="H19" s="60"/>
+      <c r="I19" s="63"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="58"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="58"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="58"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="58"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="59"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="60" t="s">
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="80"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="83"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="58"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="58"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="58"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="59"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="54" t="s">
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="80"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="58"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="58"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="58"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="58"/>
-    </row>
-    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="65"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -11145,19 +11150,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="53" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -11167,335 +11172,335 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="43" t="s">
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45" t="s">
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="44" t="s">
+      <c r="F38" s="62"/>
+      <c r="G38" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="44"/>
-      <c r="I38" s="47"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="67" t="s">
+      <c r="H38" s="60"/>
+      <c r="I38" s="63"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="70"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="69"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="67"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="66"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="71"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="69"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="68"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="66"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="71"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="69"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="68"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="66"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="71"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="69"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="68"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="66"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="71"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="69"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="68"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="66"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="71"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="69" t="s">
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="68"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="71"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="69"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="68"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="66"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="71"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="69"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="68"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="66"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="71"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="69"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="68"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="66"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="71"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="69"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="68"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="66"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="71"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="69"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="68"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="66"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="71"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="69" t="s">
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="68"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="71"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="69"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="68"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="66"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="71"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="69"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="68"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="66"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="71"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="69"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="68"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="66"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="71"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="69"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="68"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="66"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="71"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="69"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="68"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="66"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="71"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="69" t="s">
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="68"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="71"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="69"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="68"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="66"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="71"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="69"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="68"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="66"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="71"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="69"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="68"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="66"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="71"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="69"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="68"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="66"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="71"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="72"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="68"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="69"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="74"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="53" t="s">
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="71"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-    </row>
-    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="75" t="s">
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+    </row>
+    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="79" t="s">
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="79"/>
-      <c r="I66" s="80"/>
-    </row>
-    <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="94"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="95"/>
-      <c r="E67" s="95"/>
-      <c r="F67" s="95"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="77"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="89"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
       <c r="G67" s="91" t="s">
         <v>24</v>
       </c>
@@ -11504,129 +11509,129 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="51" t="s">
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="68" t="s">
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="H68" s="68"/>
+      <c r="H68" s="65"/>
       <c r="I68" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="51" t="s">
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="68" t="s">
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="H69" s="68"/>
+      <c r="H69" s="65"/>
       <c r="I69" s="42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="72" t="s">
+    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="73"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="51" t="s">
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H70" s="51"/>
+      <c r="H70" s="45"/>
       <c r="I70" s="42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="72"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="73"/>
+    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="69"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
       <c r="I71" s="42"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="83" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
-    </row>
-    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="84" t="s">
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+    </row>
+    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="86"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="54"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="58"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="54"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="58"/>
-    </row>
-    <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="63"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="65"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="49" t="s">
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="49"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="50"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="52"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="52"/>
+    </row>
+    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="53"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="55"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G80" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="49"/>
+      <c r="H80" s="56"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -11635,68 +11640,68 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="81" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="43" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="81"/>
-      <c r="D83" s="81"/>
-      <c r="F83" s="82" t="s">
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="F83" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="82"/>
-      <c r="H83" s="82"/>
-      <c r="I83" s="82"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+    </row>
+    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C97" s="4"/>
-      <c r="D97" s="82"/>
-      <c r="E97" s="82"/>
-      <c r="F97" s="82"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="44"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -11711,6 +11716,42 @@
     <protectedRange sqref="B70:F70" name="Intervalo1_3"/>
   </protectedRanges>
   <mergeCells count="52">
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="B83:D83"/>
@@ -11727,42 +11768,6 @@
     <mergeCell ref="B75:I78"/>
     <mergeCell ref="G80:H80"/>
     <mergeCell ref="B66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B20:D24"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:I11 B16:I16">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -11803,13 +11808,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11825,13 +11830,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>160020</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11851,9 +11856,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11873,9 +11878,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11889,15 +11894,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11911,15 +11916,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11935,13 +11940,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11961,7 +11966,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -11979,13 +11984,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12005,7 +12010,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12027,7 +12032,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12045,13 +12050,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12071,9 +12076,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12089,13 +12094,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12115,7 +12120,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12133,13 +12138,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12159,9 +12164,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12177,13 +12182,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12203,7 +12208,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12221,13 +12226,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12247,9 +12252,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12265,13 +12270,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12291,7 +12296,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12309,13 +12314,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12335,9 +12340,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12351,43 +12356,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B5:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:I64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R75" sqref="R75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="48" t="s">
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -12397,7 +12402,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -12409,7 +12414,7 @@
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -12424,7 +12429,7 @@
       <c r="H8" s="96"/>
       <c r="I8" s="96"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -12439,7 +12444,7 @@
       <c r="H9" s="96"/>
       <c r="I9" s="96"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
@@ -12454,7 +12459,7 @@
       <c r="H10" s="96"/>
       <c r="I10" s="96"/>
     </row>
-    <row r="12" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
@@ -12468,10 +12473,10 @@
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="87"/>
-      <c r="I12" s="88"/>
-    </row>
-    <row r="13" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+    </row>
+    <row r="13" spans="2:9" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
@@ -12485,10 +12490,10 @@
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="90"/>
-    </row>
-    <row r="14" spans="2:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="94"/>
+      <c r="I13" s="95"/>
+    </row>
+    <row r="14" spans="2:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
@@ -12505,7 +12510,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
@@ -12519,219 +12524,219 @@
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="53" t="s">
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="43" t="s">
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="44" t="s">
+      <c r="F19" s="62"/>
+      <c r="G19" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="47"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="54" t="s">
+      <c r="H19" s="60"/>
+      <c r="I19" s="63"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="55"/>
-      <c r="I20" s="58"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="58"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="58"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="58"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="59"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="60" t="s">
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="80"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="61" t="s">
+      <c r="G25" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="83"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="58"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="58"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="58"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="59"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="54" t="s">
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="80"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="55" t="s">
+      <c r="G30" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="55"/>
-      <c r="I30" s="58"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="58"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="58"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="58"/>
-    </row>
-    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="65"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -12741,19 +12746,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="53" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -12763,335 +12768,335 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="43" t="s">
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45" t="s">
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="44" t="s">
+      <c r="F38" s="62"/>
+      <c r="G38" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="44"/>
-      <c r="I38" s="47"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="67" t="s">
+      <c r="H38" s="60"/>
+      <c r="I38" s="63"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="70"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="69"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="67"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="66"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="71"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="69"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="68"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="66"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="71"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="69"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="68"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="66"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="71"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="69"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="68"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="66"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="71"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="69"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="68"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="66"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="71"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="69" t="s">
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="68"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="71"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="69"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="68"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="66"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="71"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="69"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="68"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="66"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="71"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="69"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="68"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="66"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="71"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="69"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="68"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="66"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="71"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="69"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="68"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="66"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="71"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="69" t="s">
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="68"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="71"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="69"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="68"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="66"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="71"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="69"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="68"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="66"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="71"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="69"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="68"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="66"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="71"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="69"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="68"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="66"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="71"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="69"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="68"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="66"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="71"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="69" t="s">
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="68"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="71"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="69"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="68"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="66"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="71"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="69"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="68"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="66"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="71"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="69"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="68"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="66"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="71"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="69"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="68"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="66"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="71"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="72"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="68"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="69"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="74"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="53" t="s">
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="71"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-    </row>
-    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="75" t="s">
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+    </row>
+    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="79" t="s">
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="79"/>
-      <c r="I66" s="80"/>
-    </row>
-    <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="94"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="95"/>
-      <c r="E67" s="95"/>
-      <c r="F67" s="95"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="77"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="89"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
       <c r="G67" s="91" t="s">
         <v>24</v>
       </c>
@@ -13100,111 +13105,115 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="67" t="s">
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="68"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="25"/>
-    </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="69"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="66"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
       <c r="I69" s="26"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="69"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
+    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="66"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
       <c r="I70" s="26"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="72"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="73"/>
+    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="69"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
       <c r="I71" s="27"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="83" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
-    </row>
-    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="84"/>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="86"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="54"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="58"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="54"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="58"/>
-    </row>
-    <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="63"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="65"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="49" t="s">
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+    </row>
+    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="49"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="50"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="52"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="52"/>
+    </row>
+    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="53"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="55"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G80" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="49"/>
+      <c r="H80" s="56"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -13213,21 +13222,21 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="81" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="43" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="81"/>
-      <c r="D83" s="81"/>
-      <c r="F83" s="82" t="s">
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="F83" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="82"/>
-      <c r="H83" s="82"/>
-      <c r="I83" s="82"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+    </row>
+    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>37</v>
       </c>
@@ -13238,19 +13247,27 @@
     <protectedRange sqref="B39:D62" name="Intervalo1_1"/>
   </protectedRanges>
   <mergeCells count="50">
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
     <mergeCell ref="B66:F67"/>
     <mergeCell ref="G66:I66"/>
     <mergeCell ref="G67:H67"/>
@@ -13267,27 +13284,19 @@
     <mergeCell ref="B64:I64"/>
     <mergeCell ref="B45:D50"/>
     <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I11 B7:C7 B16:I16">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
@@ -13323,13 +13332,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13345,13 +13354,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>160020</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13371,9 +13380,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13393,9 +13402,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13409,15 +13418,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13431,15 +13440,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13455,13 +13464,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13481,7 +13490,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13499,13 +13508,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13525,7 +13534,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13547,7 +13556,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13565,13 +13574,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13591,9 +13600,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13609,13 +13618,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13635,7 +13644,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13653,13 +13662,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13679,9 +13688,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13697,13 +13706,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13723,7 +13732,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13741,13 +13750,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13767,9 +13776,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13785,13 +13794,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13811,9 +13820,9 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13829,13 +13838,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13855,9 +13864,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13871,7 +13880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -13881,33 +13890,33 @@
       <selection activeCell="C8" sqref="C8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="48" t="s">
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -13917,19 +13926,19 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="49" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -13944,7 +13953,7 @@
       <c r="H8" s="96"/>
       <c r="I8" s="96"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -13959,7 +13968,7 @@
       <c r="H9" s="96"/>
       <c r="I9" s="96"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
@@ -13974,272 +13983,272 @@
       <c r="H10" s="96"/>
       <c r="I10" s="96"/>
     </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="61" t="str">
+      <c r="C12" s="82" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Masanori Iha</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="87"/>
-      <c r="I12" s="88"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="55" t="str">
+      <c r="C13" s="51" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Raphael Coqui</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="90"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="94"/>
+      <c r="I13" s="95"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="55" t="str">
+      <c r="C14" s="51" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Rodrigo Nappi</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="57" t="str">
+      <c r="C15" s="79" t="str">
         <f>'2º Sem - Agosto'!C15:F15</f>
         <v>William Honorato</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="53" t="s">
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="43" t="s">
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="44" t="s">
+      <c r="F19" s="62"/>
+      <c r="G19" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="47"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="63"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="58"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="58"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="58"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="58"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="59"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="80"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="83"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="58"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="58"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="58"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="59"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="80"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="58"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="58"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="58"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="58"/>
-    </row>
-    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="65"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -14249,19 +14258,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="53" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
@@ -14271,327 +14280,327 @@
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
     </row>
-    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="43" t="s">
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45" t="s">
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="44" t="s">
+      <c r="F38" s="62"/>
+      <c r="G38" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="44"/>
-      <c r="I38" s="47"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="67"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="63"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="64"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="70"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="69"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="67"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="66"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="71"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="69"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="68"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="66"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="71"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="69"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="68"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="66"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="71"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="69"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="68"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="66"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="71"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="69"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="68"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="66"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="71"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="60"/>
-      <c r="C45" s="61"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="68"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="81"/>
+      <c r="C45" s="82"/>
       <c r="D45" s="100"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
       <c r="G45" s="103"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="62"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="54"/>
-      <c r="C46" s="55"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="83"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="50"/>
+      <c r="C46" s="51"/>
       <c r="D46" s="101"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="104"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="58"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="54"/>
-      <c r="C47" s="55"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="52"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="101"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="104"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="58"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="54"/>
-      <c r="C48" s="55"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="52"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="101"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="104"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="58"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="54"/>
-      <c r="C49" s="55"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="52"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="50"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="101"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G49" s="104"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="58"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="56"/>
-      <c r="C50" s="57"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="52"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="78"/>
+      <c r="C50" s="79"/>
       <c r="D50" s="102"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
       <c r="G50" s="105"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="59"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="60"/>
-      <c r="C51" s="61"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="80"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="81"/>
+      <c r="C51" s="82"/>
       <c r="D51" s="100"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
       <c r="G51" s="103"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="62"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="54"/>
-      <c r="C52" s="55"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="83"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="50"/>
+      <c r="C52" s="51"/>
       <c r="D52" s="101"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G52" s="104"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="58"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="54"/>
-      <c r="C53" s="55"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="50"/>
+      <c r="C53" s="51"/>
       <c r="D53" s="101"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="104"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="58"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="54"/>
-      <c r="C54" s="55"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="52"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="50"/>
+      <c r="C54" s="51"/>
       <c r="D54" s="101"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="104"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="58"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="54"/>
-      <c r="C55" s="55"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="52"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="50"/>
+      <c r="C55" s="51"/>
       <c r="D55" s="101"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="104"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="58"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="56"/>
-      <c r="C56" s="57"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="52"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="78"/>
+      <c r="C56" s="79"/>
       <c r="D56" s="102"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
       <c r="G56" s="105"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="59"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="69"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="80"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="66"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="71"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="69"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="68"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="66"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="71"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="69"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="68"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="66"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="71"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="69"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="68"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="66"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="71"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="69"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="68"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="66"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="71"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="72"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="68"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="69"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="74"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="53" t="s">
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="71"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-    </row>
-    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="75" t="s">
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+    </row>
+    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="79" t="s">
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="79"/>
-      <c r="I66" s="80"/>
-    </row>
-    <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="94"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="95"/>
-      <c r="E67" s="95"/>
-      <c r="F67" s="95"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="77"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="89"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
       <c r="G67" s="91" t="s">
         <v>24</v>
       </c>
@@ -14600,109 +14609,109 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="67"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="64"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
       <c r="I68" s="31"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="69"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="66"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
       <c r="I69" s="32"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="69"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
+    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="66"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
       <c r="I70" s="32"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="72"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="73"/>
+    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="69"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
       <c r="I71" s="33"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="83" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
-    </row>
-    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="84"/>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="86"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="54"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="58"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="54"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="58"/>
-    </row>
-    <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="63"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="65"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="49" t="s">
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+    </row>
+    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="47"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="49"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="50"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="52"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="52"/>
+    </row>
+    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="53"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="55"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G80" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="49"/>
+      <c r="H80" s="56"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -14711,21 +14720,21 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="81" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="43" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="81"/>
-      <c r="D83" s="81"/>
-      <c r="F83" s="82" t="s">
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="F83" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="82"/>
-      <c r="H83" s="82"/>
-      <c r="I83" s="82"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+    </row>
+    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>37</v>
       </c>
@@ -14735,6 +14744,44 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="51">
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B66:F67"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="C8:I8"/>
@@ -14748,44 +14795,6 @@
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I11 B7 B16:I16">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
@@ -14818,13 +14827,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14840,13 +14849,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>160020</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14866,9 +14875,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14888,9 +14897,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14904,15 +14913,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14926,15 +14935,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14950,13 +14959,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14976,7 +14985,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -14994,13 +15003,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15020,9 +15029,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>137160</xdr:rowOff>
+                    <xdr:rowOff>133350</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15042,7 +15051,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15060,13 +15069,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15086,9 +15095,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15104,13 +15113,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15130,7 +15139,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15148,13 +15157,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15174,9 +15183,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15192,11 +15201,11 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
@@ -15218,7 +15227,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15236,13 +15245,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15262,9 +15271,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15280,13 +15289,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15306,7 +15315,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15324,13 +15333,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15350,9 +15359,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15366,41 +15375,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -15411,29 +15420,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Procedimento_x0020_Relacionado xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
-    <Processo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">55</Processo>
-    <C_x00f3_digo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">FSA - FTT18</C_x00f3_digo>
-    <Revis_x00e3_o xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">4</Revis_x00e3_o>
-    <Diretoria_x0020_Respons_x00e1_vel xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">2</Diretoria_x0020_Respons_x00e1_vel>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100951F864CA035244EB7F6E6B9CAD39DD8" ma:contentTypeVersion="28" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="4d3f40bcd57f6f3788c6a2039c87841b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="ce03834f-a579-4ecb-b47e-e136bae11e47" xmlns:ns3="948e1b9c-bee8-44de-8cc6-706e5b780eae" xmlns:ns4="feadaf30-646e-4180-8499-c12b20b15a5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3c3814524ee6e7ba98c66e9da7e66bc" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15690,34 +15676,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF4BCC7-3A0E-4F11-8315-9CA8DFA05F4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="feadaf30-646e-4180-8499-c12b20b15a5f"/>
-    <ds:schemaRef ds:uri="948e1b9c-bee8-44de-8cc6-706e5b780eae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Procedimento_x0020_Relacionado xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
+    <Processo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">55</Processo>
+    <C_x00f3_digo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">FSA - FTT18</C_x00f3_digo>
+    <Revis_x00e3_o xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">4</Revis_x00e3_o>
+    <Diretoria_x0020_Respons_x00e1_vel xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">2</Diretoria_x0020_Respons_x00e1_vel>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DEC6A78-1548-46C1-A293-FB862F1C8C0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15736,4 +15718,31 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF4BCC7-3A0E-4F11-8315-9CA8DFA05F4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="feadaf30-646e-4180-8499-c12b20b15a5f"/>
+    <ds:schemaRef ds:uri="948e1b9c-bee8-44de-8cc6-706e5b780eae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>